--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Übersicht über alle Bestellungen</t>
   </si>
@@ -35,12 +35,39 @@
     <t>Dauer</t>
   </si>
   <si>
-    <t>bestellung9908</t>
+    <t>bestellung558</t>
   </si>
   <si>
     <t>Computer</t>
   </si>
   <si>
+    <t>bestellung8006</t>
+  </si>
+  <si>
+    <t>bestellung2740</t>
+  </si>
+  <si>
+    <t>bestellung5138</t>
+  </si>
+  <si>
+    <t>bestellung8686</t>
+  </si>
+  <si>
+    <t>bestellung8356</t>
+  </si>
+  <si>
+    <t>bestellung401</t>
+  </si>
+  <si>
+    <t>bestellung6042</t>
+  </si>
+  <si>
+    <t>bestellung6204</t>
+  </si>
+  <si>
+    <t>bestellung1248</t>
+  </si>
+  <si>
     <t>Aufgabenbezeichnung</t>
   </si>
   <si>
@@ -56,25 +83,43 @@
     <t>bestellungSichten</t>
   </si>
   <si>
-    <t>Brandon Garcia</t>
+    <t>John Torres</t>
+  </si>
+  <si>
+    <t>bestellungKlaeren</t>
+  </si>
+  <si>
+    <t>bestellungDigitalisieren</t>
+  </si>
+  <si>
+    <t>rechnungStellen</t>
+  </si>
+  <si>
+    <t>auftragPruefen</t>
+  </si>
+  <si>
+    <t>Roberto Brown</t>
+  </si>
+  <si>
+    <t>auftragNachbearbeiten</t>
+  </si>
+  <si>
+    <t>verfuegbarkeitPruefen</t>
+  </si>
+  <si>
+    <t>warenBuchen</t>
+  </si>
+  <si>
+    <t>produktentnahmeEintragen</t>
+  </si>
+  <si>
+    <t>Ryan Schwartz</t>
+  </si>
+  <si>
+    <t>liefern</t>
   </si>
   <si>
     <t>datenPruefen</t>
-  </si>
-  <si>
-    <t>rechnungStellen</t>
-  </si>
-  <si>
-    <t>auftragPruefen</t>
-  </si>
-  <si>
-    <t>Roberto Brown</t>
-  </si>
-  <si>
-    <t>auftragNachbearbeiten</t>
-  </si>
-  <si>
-    <t>bestellungKlaeren</t>
   </si>
   <si>
     <t>mitKundeKlaeren</t>
@@ -129,7 +174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -171,13 +216,193 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>44802.2501116</v>
+        <v>44804.3075837</v>
       </c>
       <c r="E3" s="1">
-        <v>44802.2778894</v>
+        <v>44804.3749448</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>2400000</v>
+        <v>5820000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44804.3249448</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44804.3818892</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>4920000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44804.3749448</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44804.4978614</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10620000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44804.390917</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44804.4791114</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>7620000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44804.4055003</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44804.6256392</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>19020000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44804.4527226</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44804.553417</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8700000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44804.4728614</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44804.6027226</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>11220000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44804.4798059</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44804.6117503</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>11400000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44804.4881392</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44804.6186948</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>11280000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44804.503417</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44804.6325837</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>11160000</v>
       </c>
     </row>
   </sheetData>
@@ -187,7 +412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -203,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -223,16 +448,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1">
-        <v>44802.2501116</v>
+        <v>44804.3075837</v>
       </c>
       <c r="E3" s="1">
-        <v>44802.2535838</v>
+        <v>44804.3110559</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>300000</v>
@@ -243,19 +468,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
-        <v>44802.2535838</v>
+        <v>44804.3110559</v>
       </c>
       <c r="E4" s="1">
-        <v>44802.2549727</v>
+        <v>44804.3249448</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>120000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -263,39 +488,39 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>44802.2549727</v>
+        <v>44804.3249448</v>
       </c>
       <c r="E5" s="1">
-        <v>44802.2563616</v>
+        <v>44804.328417</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>120000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
-        <v>44802.2563616</v>
+        <v>44804.328417</v>
       </c>
       <c r="E6" s="1">
-        <v>44802.2584449</v>
+        <v>44804.3318892</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>180000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -303,39 +528,39 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>44802.2584449</v>
+        <v>44804.3318892</v>
       </c>
       <c r="E7" s="1">
-        <v>44802.2626116</v>
+        <v>44804.3374448</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>360000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
-        <v>44802.2626116</v>
+        <v>44804.3374448</v>
       </c>
       <c r="E8" s="1">
-        <v>44802.2765005</v>
+        <v>44804.3430003</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1200000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -343,19 +568,1839 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44804.3430003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44804.3443892</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44804.3443892</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44804.3457781</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44804.3457781</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44804.3478614</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44804.3478614</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44804.3499448</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44804.3499448</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44804.3541114</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44804.3541114</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44804.3582781</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44804.3582781</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44804.359667</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44804.359667</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44804.3610559</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44804.3610559</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44804.3624448</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44804.3624448</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44804.3638337</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44804.3638337</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44804.3652226</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44804.365917</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44804.3673059</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44804.3680003</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44804.3749448</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44804.3749448</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44804.3818892</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44804.3777226</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44804.3811948</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44804.3818892</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44804.3832781</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44804.3832781</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44804.384667</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44804.384667</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44804.3867503</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44804.3867503</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44804.390917</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44804.390917</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44804.4048059</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44804.4048059</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44804.4082781</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44804.4068892</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44804.4089726</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44804.4082781</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44804.4117503</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44804.4117503</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44804.4256392</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44804.4117503</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44804.415917</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44804.4256392</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44804.4395281</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44804.4395281</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44804.453417</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44804.453417</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44804.4568892</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44804.4568892</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44804.4603614</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44804.4603614</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44804.4638337</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44804.4638337</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44804.4652226</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44804.4652226</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44804.4791114</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44804.4791114</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44804.4930003</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44804.4930003</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44804.4985559</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44804.4700837</v>
+      </c>
+      <c r="E43" s="1">
+        <v>44804.472167</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44804.4742503</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44804.478417</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1">
-        <v>44802.2765005</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44802.2778894</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>120000</v>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44804.4985559</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44804.5020281</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44804.4805003</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44804.4818892</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44804.5020281</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44804.5055003</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44804.484667</v>
+      </c>
+      <c r="E48" s="1">
+        <v>44804.4860559</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44804.4881392</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44804.4888337</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44804.5055003</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44804.5089726</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44804.490917</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44804.4978614</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44804.5089726</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44804.5124448</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44804.5124448</v>
+      </c>
+      <c r="E53" s="1">
+        <v>44804.5138337</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44804.5138337</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44804.5193892</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44804.5193892</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44804.5228614</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44804.5228614</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44804.528417</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44804.528417</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44804.5298059</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44804.5298059</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44804.5311948</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44804.5166114</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44804.5186948</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44804.5207781</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44804.5249448</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44804.5311948</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44804.5325837</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44804.5325837</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44804.5381392</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44804.5270281</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44804.528417</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44804.5305003</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44804.5318892</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44804.5381392</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44804.5395281</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44804.5395281</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44804.540917</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44804.540917</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44804.5423059</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44804.5381392</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44804.5395281</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44804.5416114</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44804.5436948</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44804.5436948</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44804.5450837</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44804.5450837</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44804.547167</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44804.5464726</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44804.553417</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44804.5485559</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44804.5506392</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44804.5506392</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44804.5527226</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44804.5527226</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44804.5568892</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44804.5568892</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44804.5589726</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44804.5589726</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44804.5631392</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44804.5631392</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44804.5673059</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="1">
+        <v>44804.5673059</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44804.5714726</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="1">
+        <v>44804.5714726</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44804.5728614</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44804.5728614</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44804.5770281</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44804.5770281</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44804.578417</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44804.578417</v>
+      </c>
+      <c r="E83" s="1">
+        <v>44804.5798059</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44804.5798059</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44804.5811948</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44804.5811948</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44804.5825837</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44804.5825837</v>
+      </c>
+      <c r="E86" s="1">
+        <v>44804.5839726</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44804.5839726</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44804.5853614</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44804.5853614</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44804.5867503</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44804.5867503</v>
+      </c>
+      <c r="E89" s="1">
+        <v>44804.5881392</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="1">
+        <v>44804.5881392</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44804.5895281</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44804.5895281</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44804.590917</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44804.590917</v>
+      </c>
+      <c r="E92" s="1">
+        <v>44804.5923059</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44804.5923059</v>
+      </c>
+      <c r="E93" s="1">
+        <v>44804.5930003</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44804.5936948</v>
+      </c>
+      <c r="E94" s="1">
+        <v>44804.5950837</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44804.5957781</v>
+      </c>
+      <c r="E95" s="1">
+        <v>44804.6027226</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44804.6027226</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44804.6041114</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="1">
+        <v>44804.6048059</v>
+      </c>
+      <c r="E97" s="1">
+        <v>44804.6117503</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="1">
+        <v>44804.6117503</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44804.6186948</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44804.6186948</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44804.6256392</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44804.6256392</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44804.6325837</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>600000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maschobert\Documents\GitHub\UnitySimulationServer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179F516-1913-4A13-8DD9-A51AD4FDF1DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bestellungen" sheetId="1" r:id="rId1"/>
     <sheet name="Aufgaben" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="37">
   <si>
     <t>Übersicht über alle Bestellungen</t>
   </si>
@@ -128,12 +137,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
-    <numFmt formatCode="[$-409]m/d/yy" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00;\ \(\$#,##0.00\);\ \-"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -159,249 +169,565 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="2" max="2" width="29.296875" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
+    <col min="4" max="5" width="23.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>44804.3075837</v>
       </c>
-      <c r="E3" s="1">
-        <v>44804.3749448</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="3">
+        <v>44804.374944800002</v>
+      </c>
+      <c r="F3" s="2">
         <v>5820000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>44804.3249448</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44804.3818892</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="D4" s="3">
+        <v>44804.324944799999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44804.381889199998</v>
+      </c>
+      <c r="F4" s="2">
         <v>4920000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>44804.3749448</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44804.4978614</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="D5" s="3">
+        <v>44804.374944800002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44804.497861399999</v>
+      </c>
+      <c r="F5" s="2">
         <v>10620000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>44804.390917</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44804.4791114</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="D6" s="3">
+        <v>44804.390916999997</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44804.479111400004</v>
+      </c>
+      <c r="F6" s="2">
         <v>7620000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>44804.4055003</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="3">
+        <v>44804.405500300003</v>
+      </c>
+      <c r="E7" s="3">
         <v>44804.6256392</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2">
         <v>19020000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>44804.4527226</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44804.553417</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="D8" s="3">
+        <v>44804.452722599999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44804.553417000003</v>
+      </c>
+      <c r="F8" s="2">
         <v>8700000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>44804.4728614</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44804.6027226</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="D9" s="3">
+        <v>44804.472861399998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44804.602722600001</v>
+      </c>
+      <c r="F9" s="2">
         <v>11220000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>44804.4798059</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44804.6117503</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="D10" s="3">
+        <v>44804.479805900002</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44804.611750299999</v>
+      </c>
+      <c r="F10" s="2">
         <v>11400000</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>44804.4881392</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44804.6186948</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="D11" s="3">
+        <v>44804.488139200002</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44804.618694800003</v>
+      </c>
+      <c r="F11" s="2">
         <v>11280000</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>44804.503417</v>
       </c>
-      <c r="E12" s="1">
-        <v>44804.6325837</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="E12" s="3">
+        <v>44804.632583699997</v>
+      </c>
+      <c r="F12" s="2">
         <v>11160000</v>
       </c>
     </row>
@@ -411,19 +737,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.09765625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" customWidth="1"/>
+    <col min="4" max="4" width="20" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -433,17 +769,17 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -453,17 +789,17 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>44804.3075837</v>
       </c>
-      <c r="E3" s="1">
-        <v>44804.3110559</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="4">
+        <v>44804.311055899998</v>
+      </c>
+      <c r="F3" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -473,17 +809,17 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1">
-        <v>44804.3110559</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44804.3249448</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="D4" s="4">
+        <v>44804.311055899998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44804.324944799999</v>
+      </c>
+      <c r="F4" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -493,17 +829,17 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1">
-        <v>44804.3249448</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44804.328417</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="D5" s="4">
+        <v>44804.324944799999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44804.328416999997</v>
+      </c>
+      <c r="F5" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -513,17 +849,17 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1">
-        <v>44804.328417</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44804.3318892</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="D6" s="4">
+        <v>44804.328416999997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44804.331889200002</v>
+      </c>
+      <c r="F6" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -533,17 +869,17 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1">
-        <v>44804.3318892</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44804.3374448</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="D7" s="4">
+        <v>44804.331889200002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44804.337444800003</v>
+      </c>
+      <c r="F7" s="2">
         <v>480000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -553,17 +889,17 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1">
-        <v>44804.3374448</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44804.3430003</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="D8" s="4">
+        <v>44804.337444800003</v>
+      </c>
+      <c r="E8" s="4">
+        <v>44804.343000300003</v>
+      </c>
+      <c r="F8" s="2">
         <v>480000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -573,17 +909,17 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1">
-        <v>44804.3430003</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="4">
+        <v>44804.343000300003</v>
+      </c>
+      <c r="E9" s="4">
         <v>44804.3443892</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -593,17 +929,17 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>44804.3443892</v>
       </c>
-      <c r="E10" s="1">
-        <v>44804.3457781</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="4">
+        <v>44804.345778100003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -613,17 +949,17 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1">
-        <v>44804.3457781</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44804.3478614</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="D11" s="4">
+        <v>44804.345778100003</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44804.347861399998</v>
+      </c>
+      <c r="F11" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,17 +969,17 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1">
-        <v>44804.3478614</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="4">
+        <v>44804.347861399998</v>
+      </c>
+      <c r="E12" s="4">
         <v>44804.3499448</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -653,17 +989,17 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>44804.3499448</v>
       </c>
-      <c r="E13" s="1">
-        <v>44804.3541114</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="E13" s="4">
+        <v>44804.354111400004</v>
+      </c>
+      <c r="F13" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -673,17 +1009,17 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1">
-        <v>44804.3541114</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="4">
+        <v>44804.354111400004</v>
+      </c>
+      <c r="E14" s="4">
         <v>44804.3582781</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -693,17 +1029,17 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>44804.3582781</v>
       </c>
-      <c r="E15" s="1">
-        <v>44804.359667</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="4">
+        <v>44804.359666999997</v>
+      </c>
+      <c r="F15" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -713,17 +1049,17 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1">
-        <v>44804.359667</v>
-      </c>
-      <c r="E16" s="1">
-        <v>44804.3610559</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D16" s="4">
+        <v>44804.359666999997</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44804.361055900001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -733,17 +1069,17 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1">
-        <v>44804.3610559</v>
-      </c>
-      <c r="E17" s="1">
-        <v>44804.3624448</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="D17" s="4">
+        <v>44804.361055900001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44804.362444799997</v>
+      </c>
+      <c r="F17" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -753,17 +1089,17 @@
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1">
-        <v>44804.3624448</v>
-      </c>
-      <c r="E18" s="1">
-        <v>44804.3638337</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="D18" s="4">
+        <v>44804.362444799997</v>
+      </c>
+      <c r="E18" s="4">
+        <v>44804.363833700001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -773,17 +1109,17 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="1">
-        <v>44804.3638337</v>
-      </c>
-      <c r="E19" s="1">
-        <v>44804.3652226</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="4">
+        <v>44804.363833700001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>44804.365222599998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,17 +1129,17 @@
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="1">
-        <v>44804.365917</v>
-      </c>
-      <c r="E20" s="1">
-        <v>44804.3673059</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20" s="4">
+        <v>44804.365917000003</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44804.367305899999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,17 +1149,17 @@
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="1">
-        <v>44804.3680003</v>
-      </c>
-      <c r="E21" s="1">
-        <v>44804.3749448</v>
-      </c>
-      <c r="F21" s="1" t="n">
+      <c r="D21" s="4">
+        <v>44804.368000299997</v>
+      </c>
+      <c r="E21" s="4">
+        <v>44804.374944800002</v>
+      </c>
+      <c r="F21" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -833,17 +1169,17 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="1">
-        <v>44804.3749448</v>
-      </c>
-      <c r="E22" s="1">
-        <v>44804.3818892</v>
-      </c>
-      <c r="F22" s="1" t="n">
+      <c r="D22" s="4">
+        <v>44804.374944800002</v>
+      </c>
+      <c r="E22" s="4">
+        <v>44804.381889199998</v>
+      </c>
+      <c r="F22" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -853,17 +1189,17 @@
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1">
-        <v>44804.3777226</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="4">
+        <v>44804.377722600002</v>
+      </c>
+      <c r="E23" s="4">
         <v>44804.3811948</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -873,17 +1209,17 @@
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="1">
-        <v>44804.3818892</v>
-      </c>
-      <c r="E24" s="1">
-        <v>44804.3832781</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="D24" s="4">
+        <v>44804.381889199998</v>
+      </c>
+      <c r="E24" s="4">
+        <v>44804.383278100002</v>
+      </c>
+      <c r="F24" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -893,17 +1229,17 @@
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1">
-        <v>44804.3832781</v>
-      </c>
-      <c r="E25" s="1">
-        <v>44804.384667</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" s="4">
+        <v>44804.383278100002</v>
+      </c>
+      <c r="E25" s="4">
+        <v>44804.384666999998</v>
+      </c>
+      <c r="F25" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -913,17 +1249,17 @@
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="1">
-        <v>44804.384667</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="4">
+        <v>44804.384666999998</v>
+      </c>
+      <c r="E26" s="4">
         <v>44804.3867503</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,17 +1269,17 @@
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>44804.3867503</v>
       </c>
-      <c r="E27" s="1">
-        <v>44804.390917</v>
-      </c>
-      <c r="F27" s="1" t="n">
+      <c r="E27" s="4">
+        <v>44804.390916999997</v>
+      </c>
+      <c r="F27" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -953,17 +1289,17 @@
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="1">
-        <v>44804.390917</v>
-      </c>
-      <c r="E28" s="1">
-        <v>44804.4048059</v>
-      </c>
-      <c r="F28" s="1" t="n">
+      <c r="D28" s="4">
+        <v>44804.390916999997</v>
+      </c>
+      <c r="E28" s="4">
+        <v>44804.404805899998</v>
+      </c>
+      <c r="F28" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,17 +1309,17 @@
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="1">
-        <v>44804.4048059</v>
-      </c>
-      <c r="E29" s="1">
-        <v>44804.4082781</v>
-      </c>
-      <c r="F29" s="1" t="n">
+      <c r="D29" s="4">
+        <v>44804.404805899998</v>
+      </c>
+      <c r="E29" s="4">
+        <v>44804.408278100003</v>
+      </c>
+      <c r="F29" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -993,17 +1329,17 @@
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>44804.4068892</v>
       </c>
-      <c r="E30" s="1">
-        <v>44804.4089726</v>
-      </c>
-      <c r="F30" s="1" t="n">
+      <c r="E30" s="4">
+        <v>44804.408972600002</v>
+      </c>
+      <c r="F30" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1013,17 +1349,17 @@
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="1">
-        <v>44804.4082781</v>
-      </c>
-      <c r="E31" s="1">
-        <v>44804.4117503</v>
-      </c>
-      <c r="F31" s="1" t="n">
+      <c r="D31" s="4">
+        <v>44804.408278100003</v>
+      </c>
+      <c r="E31" s="4">
+        <v>44804.411750300002</v>
+      </c>
+      <c r="F31" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,17 +1369,17 @@
       <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="1">
-        <v>44804.4117503</v>
-      </c>
-      <c r="E32" s="1">
-        <v>44804.4256392</v>
-      </c>
-      <c r="F32" s="1" t="n">
+      <c r="D32" s="4">
+        <v>44804.411750300002</v>
+      </c>
+      <c r="E32" s="4">
+        <v>44804.425639200002</v>
+      </c>
+      <c r="F32" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1053,17 +1389,17 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="1">
-        <v>44804.4117503</v>
-      </c>
-      <c r="E33" s="1">
-        <v>44804.415917</v>
-      </c>
-      <c r="F33" s="1" t="n">
+      <c r="D33" s="4">
+        <v>44804.411750300002</v>
+      </c>
+      <c r="E33" s="4">
+        <v>44804.415916999998</v>
+      </c>
+      <c r="F33" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1073,17 +1409,17 @@
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="1">
-        <v>44804.4256392</v>
-      </c>
-      <c r="E34" s="1">
-        <v>44804.4395281</v>
-      </c>
-      <c r="F34" s="1" t="n">
+      <c r="D34" s="4">
+        <v>44804.425639200002</v>
+      </c>
+      <c r="E34" s="4">
+        <v>44804.439528100003</v>
+      </c>
+      <c r="F34" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1093,17 +1429,17 @@
       <c r="C35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="1">
-        <v>44804.4395281</v>
-      </c>
-      <c r="E35" s="1">
-        <v>44804.453417</v>
-      </c>
-      <c r="F35" s="1" t="n">
+      <c r="D35" s="4">
+        <v>44804.439528100003</v>
+      </c>
+      <c r="E35" s="4">
+        <v>44804.453416999997</v>
+      </c>
+      <c r="F35" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,17 +1449,17 @@
       <c r="C36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="1">
-        <v>44804.453417</v>
-      </c>
-      <c r="E36" s="1">
-        <v>44804.4568892</v>
-      </c>
-      <c r="F36" s="1" t="n">
+      <c r="D36" s="4">
+        <v>44804.453416999997</v>
+      </c>
+      <c r="E36" s="4">
+        <v>44804.456889200002</v>
+      </c>
+      <c r="F36" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
@@ -1133,17 +1469,17 @@
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="1">
-        <v>44804.4568892</v>
-      </c>
-      <c r="E37" s="1">
-        <v>44804.4603614</v>
-      </c>
-      <c r="F37" s="1" t="n">
+      <c r="D37" s="4">
+        <v>44804.456889200002</v>
+      </c>
+      <c r="E37" s="4">
+        <v>44804.460361400001</v>
+      </c>
+      <c r="F37" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,17 +1489,17 @@
       <c r="C38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="1">
-        <v>44804.4603614</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="4">
+        <v>44804.460361400001</v>
+      </c>
+      <c r="E38" s="4">
         <v>44804.4638337</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,17 +1509,17 @@
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>44804.4638337</v>
       </c>
-      <c r="E39" s="1">
-        <v>44804.4652226</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="E39" s="4">
+        <v>44804.465222600003</v>
+      </c>
+      <c r="F39" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,17 +1529,17 @@
       <c r="C40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="1">
-        <v>44804.4652226</v>
-      </c>
-      <c r="E40" s="1">
-        <v>44804.4791114</v>
-      </c>
-      <c r="F40" s="1" t="n">
+      <c r="D40" s="4">
+        <v>44804.465222600003</v>
+      </c>
+      <c r="E40" s="4">
+        <v>44804.479111400004</v>
+      </c>
+      <c r="F40" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -1213,17 +1549,17 @@
       <c r="C41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="1">
-        <v>44804.4791114</v>
-      </c>
-      <c r="E41" s="1">
-        <v>44804.4930003</v>
-      </c>
-      <c r="F41" s="1" t="n">
+      <c r="D41" s="4">
+        <v>44804.479111400004</v>
+      </c>
+      <c r="E41" s="4">
+        <v>44804.493000299997</v>
+      </c>
+      <c r="F41" s="2">
         <v>1200000</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1233,17 +1569,17 @@
       <c r="C42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="1">
-        <v>44804.4930003</v>
-      </c>
-      <c r="E42" s="1">
-        <v>44804.4985559</v>
-      </c>
-      <c r="F42" s="1" t="n">
+      <c r="D42" s="4">
+        <v>44804.493000299997</v>
+      </c>
+      <c r="E42" s="4">
+        <v>44804.498555899998</v>
+      </c>
+      <c r="F42" s="2">
         <v>480000</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1253,17 +1589,17 @@
       <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="1">
-        <v>44804.4700837</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="4">
+        <v>44804.470083699998</v>
+      </c>
+      <c r="E43" s="4">
         <v>44804.472167</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -1273,17 +1609,17 @@
       <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="1">
-        <v>44804.4742503</v>
-      </c>
-      <c r="E44" s="1">
-        <v>44804.478417</v>
-      </c>
-      <c r="F44" s="1" t="n">
+      <c r="D44" s="4">
+        <v>44804.474250300002</v>
+      </c>
+      <c r="E44" s="4">
+        <v>44804.478416999998</v>
+      </c>
+      <c r="F44" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -1293,17 +1629,17 @@
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="1">
-        <v>44804.4985559</v>
-      </c>
-      <c r="E45" s="1">
-        <v>44804.5020281</v>
-      </c>
-      <c r="F45" s="1" t="n">
+      <c r="D45" s="4">
+        <v>44804.498555899998</v>
+      </c>
+      <c r="E45" s="4">
+        <v>44804.502028100003</v>
+      </c>
+      <c r="F45" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -1313,17 +1649,17 @@
       <c r="C46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="4">
         <v>44804.4805003</v>
       </c>
-      <c r="E46" s="1">
-        <v>44804.4818892</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="E46" s="4">
+        <v>44804.481889199997</v>
+      </c>
+      <c r="F46" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,17 +1669,17 @@
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="1">
-        <v>44804.5020281</v>
-      </c>
-      <c r="E47" s="1">
-        <v>44804.5055003</v>
-      </c>
-      <c r="F47" s="1" t="n">
+      <c r="D47" s="4">
+        <v>44804.502028100003</v>
+      </c>
+      <c r="E47" s="4">
+        <v>44804.505500300002</v>
+      </c>
+      <c r="F47" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -1353,17 +1689,17 @@
       <c r="C48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="1">
-        <v>44804.484667</v>
-      </c>
-      <c r="E48" s="1">
-        <v>44804.4860559</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="D48" s="4">
+        <v>44804.484666999997</v>
+      </c>
+      <c r="E48" s="4">
+        <v>44804.486055900001</v>
+      </c>
+      <c r="F48" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -1373,17 +1709,17 @@
       <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="1">
-        <v>44804.4881392</v>
-      </c>
-      <c r="E49" s="1">
-        <v>44804.4888337</v>
-      </c>
-      <c r="F49" s="1" t="n">
+      <c r="D49" s="4">
+        <v>44804.488139200002</v>
+      </c>
+      <c r="E49" s="4">
+        <v>44804.488833700001</v>
+      </c>
+      <c r="F49" s="2">
         <v>60000</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -1393,17 +1729,17 @@
       <c r="C50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="1">
-        <v>44804.5055003</v>
-      </c>
-      <c r="E50" s="1">
-        <v>44804.5089726</v>
-      </c>
-      <c r="F50" s="1" t="n">
+      <c r="D50" s="4">
+        <v>44804.505500300002</v>
+      </c>
+      <c r="E50" s="4">
+        <v>44804.508972600001</v>
+      </c>
+      <c r="F50" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -1413,17 +1749,17 @@
       <c r="C51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="1">
-        <v>44804.490917</v>
-      </c>
-      <c r="E51" s="1">
-        <v>44804.4978614</v>
-      </c>
-      <c r="F51" s="1" t="n">
+      <c r="D51" s="4">
+        <v>44804.490917000003</v>
+      </c>
+      <c r="E51" s="4">
+        <v>44804.497861399999</v>
+      </c>
+      <c r="F51" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -1433,17 +1769,17 @@
       <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="1">
-        <v>44804.5089726</v>
-      </c>
-      <c r="E52" s="1">
-        <v>44804.5124448</v>
-      </c>
-      <c r="F52" s="1" t="n">
+      <c r="D52" s="4">
+        <v>44804.508972600001</v>
+      </c>
+      <c r="E52" s="4">
+        <v>44804.512444799999</v>
+      </c>
+      <c r="F52" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -1453,17 +1789,17 @@
       <c r="C53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="1">
-        <v>44804.5124448</v>
-      </c>
-      <c r="E53" s="1">
-        <v>44804.5138337</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="D53" s="4">
+        <v>44804.512444799999</v>
+      </c>
+      <c r="E53" s="4">
+        <v>44804.513833700003</v>
+      </c>
+      <c r="F53" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
@@ -1473,17 +1809,17 @@
       <c r="C54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="1">
-        <v>44804.5138337</v>
-      </c>
-      <c r="E54" s="1">
-        <v>44804.5193892</v>
-      </c>
-      <c r="F54" s="1" t="n">
+      <c r="D54" s="4">
+        <v>44804.513833700003</v>
+      </c>
+      <c r="E54" s="4">
+        <v>44804.519389200002</v>
+      </c>
+      <c r="F54" s="2">
         <v>480000</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
@@ -1493,17 +1829,17 @@
       <c r="C55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="1">
-        <v>44804.5193892</v>
-      </c>
-      <c r="E55" s="1">
-        <v>44804.5228614</v>
-      </c>
-      <c r="F55" s="1" t="n">
+      <c r="D55" s="4">
+        <v>44804.519389200002</v>
+      </c>
+      <c r="E55" s="4">
+        <v>44804.522861400001</v>
+      </c>
+      <c r="F55" s="2">
         <v>300000</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>15</v>
       </c>
@@ -1513,17 +1849,17 @@
       <c r="C56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="1">
-        <v>44804.5228614</v>
-      </c>
-      <c r="E56" s="1">
-        <v>44804.528417</v>
-      </c>
-      <c r="F56" s="1" t="n">
+      <c r="D56" s="4">
+        <v>44804.522861400001</v>
+      </c>
+      <c r="E56" s="4">
+        <v>44804.528417000001</v>
+      </c>
+      <c r="F56" s="2">
         <v>480000</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -1533,17 +1869,17 @@
       <c r="C57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="1">
-        <v>44804.528417</v>
-      </c>
-      <c r="E57" s="1">
-        <v>44804.5298059</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="D57" s="4">
+        <v>44804.528417000001</v>
+      </c>
+      <c r="E57" s="4">
+        <v>44804.529805899998</v>
+      </c>
+      <c r="F57" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1553,17 +1889,17 @@
       <c r="C58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="1">
-        <v>44804.5298059</v>
-      </c>
-      <c r="E58" s="1">
-        <v>44804.5311948</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="D58" s="4">
+        <v>44804.529805899998</v>
+      </c>
+      <c r="E58" s="4">
+        <v>44804.531194800002</v>
+      </c>
+      <c r="F58" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1573,17 +1909,17 @@
       <c r="C59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="1">
-        <v>44804.5166114</v>
-      </c>
-      <c r="E59" s="1">
-        <v>44804.5186948</v>
-      </c>
-      <c r="F59" s="1" t="n">
+      <c r="D59" s="4">
+        <v>44804.516611400002</v>
+      </c>
+      <c r="E59" s="4">
+        <v>44804.518694799997</v>
+      </c>
+      <c r="F59" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -1593,17 +1929,17 @@
       <c r="C60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="1">
-        <v>44804.5207781</v>
-      </c>
-      <c r="E60" s="1">
-        <v>44804.5249448</v>
-      </c>
-      <c r="F60" s="1" t="n">
+      <c r="D60" s="4">
+        <v>44804.520778099999</v>
+      </c>
+      <c r="E60" s="4">
+        <v>44804.524944800003</v>
+      </c>
+      <c r="F60" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,17 +1949,17 @@
       <c r="C61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="1">
-        <v>44804.5311948</v>
-      </c>
-      <c r="E61" s="1">
-        <v>44804.5325837</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="D61" s="4">
+        <v>44804.531194800002</v>
+      </c>
+      <c r="E61" s="4">
+        <v>44804.532583699998</v>
+      </c>
+      <c r="F61" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,17 +1969,17 @@
       <c r="C62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="1">
-        <v>44804.5325837</v>
-      </c>
-      <c r="E62" s="1">
-        <v>44804.5381392</v>
-      </c>
-      <c r="F62" s="1" t="n">
+      <c r="D62" s="4">
+        <v>44804.532583699998</v>
+      </c>
+      <c r="E62" s="4">
+        <v>44804.538139199998</v>
+      </c>
+      <c r="F62" s="2">
         <v>480000</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -1653,17 +1989,17 @@
       <c r="C63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="1">
-        <v>44804.5270281</v>
-      </c>
-      <c r="E63" s="1">
-        <v>44804.528417</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="D63" s="4">
+        <v>44804.527028099998</v>
+      </c>
+      <c r="E63" s="4">
+        <v>44804.528417000001</v>
+      </c>
+      <c r="F63" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -1673,17 +2009,17 @@
       <c r="C64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="1">
-        <v>44804.5305003</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="D64" s="4">
+        <v>44804.530500300003</v>
+      </c>
+      <c r="E64" s="4">
         <v>44804.5318892</v>
       </c>
-      <c r="F64" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="F64" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,17 +2029,17 @@
       <c r="C65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="1">
-        <v>44804.5381392</v>
-      </c>
-      <c r="E65" s="1">
-        <v>44804.5395281</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="D65" s="4">
+        <v>44804.538139199998</v>
+      </c>
+      <c r="E65" s="4">
+        <v>44804.539528100002</v>
+      </c>
+      <c r="F65" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -1713,17 +2049,17 @@
       <c r="C66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="1">
-        <v>44804.5395281</v>
-      </c>
-      <c r="E66" s="1">
-        <v>44804.540917</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="D66" s="4">
+        <v>44804.539528100002</v>
+      </c>
+      <c r="E66" s="4">
+        <v>44804.540916999998</v>
+      </c>
+      <c r="F66" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -1733,17 +2069,17 @@
       <c r="C67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="1">
-        <v>44804.540917</v>
-      </c>
-      <c r="E67" s="1">
-        <v>44804.5423059</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="D67" s="4">
+        <v>44804.540916999998</v>
+      </c>
+      <c r="E67" s="4">
+        <v>44804.542305900002</v>
+      </c>
+      <c r="F67" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -1753,17 +2089,17 @@
       <c r="C68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="1">
-        <v>44804.5381392</v>
-      </c>
-      <c r="E68" s="1">
-        <v>44804.5395281</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="D68" s="4">
+        <v>44804.538139199998</v>
+      </c>
+      <c r="E68" s="4">
+        <v>44804.539528100002</v>
+      </c>
+      <c r="F68" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
@@ -1773,17 +2109,17 @@
       <c r="C69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="1">
-        <v>44804.5416114</v>
-      </c>
-      <c r="E69" s="1">
-        <v>44804.5436948</v>
-      </c>
-      <c r="F69" s="1" t="n">
+      <c r="D69" s="4">
+        <v>44804.541611400004</v>
+      </c>
+      <c r="E69" s="4">
+        <v>44804.543694799999</v>
+      </c>
+      <c r="F69" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -1793,17 +2129,17 @@
       <c r="C70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="1">
-        <v>44804.5436948</v>
-      </c>
-      <c r="E70" s="1">
-        <v>44804.5450837</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="D70" s="4">
+        <v>44804.543694799999</v>
+      </c>
+      <c r="E70" s="4">
+        <v>44804.545083700003</v>
+      </c>
+      <c r="F70" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>15</v>
       </c>
@@ -1813,17 +2149,17 @@
       <c r="C71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="1">
-        <v>44804.5450837</v>
-      </c>
-      <c r="E71" s="1">
-        <v>44804.547167</v>
-      </c>
-      <c r="F71" s="1" t="n">
+      <c r="D71" s="4">
+        <v>44804.545083700003</v>
+      </c>
+      <c r="E71" s="4">
+        <v>44804.547166999997</v>
+      </c>
+      <c r="F71" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
@@ -1833,17 +2169,17 @@
       <c r="C72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="1">
-        <v>44804.5464726</v>
-      </c>
-      <c r="E72" s="1">
-        <v>44804.553417</v>
-      </c>
-      <c r="F72" s="1" t="n">
+      <c r="D72" s="4">
+        <v>44804.546472599999</v>
+      </c>
+      <c r="E72" s="4">
+        <v>44804.553417000003</v>
+      </c>
+      <c r="F72" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -1853,17 +2189,17 @@
       <c r="C73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="1">
-        <v>44804.5485559</v>
-      </c>
-      <c r="E73" s="1">
-        <v>44804.5506392</v>
-      </c>
-      <c r="F73" s="1" t="n">
+      <c r="D73" s="4">
+        <v>44804.548555900001</v>
+      </c>
+      <c r="E73" s="4">
+        <v>44804.550639200002</v>
+      </c>
+      <c r="F73" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -1873,17 +2209,17 @@
       <c r="C74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="1">
-        <v>44804.5506392</v>
-      </c>
-      <c r="E74" s="1">
-        <v>44804.5527226</v>
-      </c>
-      <c r="F74" s="1" t="n">
+      <c r="D74" s="4">
+        <v>44804.550639200002</v>
+      </c>
+      <c r="E74" s="4">
+        <v>44804.552722599998</v>
+      </c>
+      <c r="F74" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
@@ -1893,17 +2229,17 @@
       <c r="C75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="1">
-        <v>44804.5527226</v>
-      </c>
-      <c r="E75" s="1">
-        <v>44804.5568892</v>
-      </c>
-      <c r="F75" s="1" t="n">
+      <c r="D75" s="4">
+        <v>44804.552722599998</v>
+      </c>
+      <c r="E75" s="4">
+        <v>44804.556889200001</v>
+      </c>
+      <c r="F75" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -1913,17 +2249,17 @@
       <c r="C76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="1">
-        <v>44804.5568892</v>
-      </c>
-      <c r="E76" s="1">
-        <v>44804.5589726</v>
-      </c>
-      <c r="F76" s="1" t="n">
+      <c r="D76" s="4">
+        <v>44804.556889200001</v>
+      </c>
+      <c r="E76" s="4">
+        <v>44804.558972600003</v>
+      </c>
+      <c r="F76" s="2">
         <v>180000</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>15</v>
       </c>
@@ -1933,17 +2269,17 @@
       <c r="C77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="1">
-        <v>44804.5589726</v>
-      </c>
-      <c r="E77" s="1">
+      <c r="D77" s="4">
+        <v>44804.558972600003</v>
+      </c>
+      <c r="E77" s="4">
         <v>44804.5631392</v>
       </c>
-      <c r="F77" s="1" t="n">
+      <c r="F77" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
@@ -1953,17 +2289,17 @@
       <c r="C78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="4">
         <v>44804.5631392</v>
       </c>
-      <c r="E78" s="1">
-        <v>44804.5673059</v>
-      </c>
-      <c r="F78" s="1" t="n">
+      <c r="E78" s="4">
+        <v>44804.567305899996</v>
+      </c>
+      <c r="F78" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -1973,17 +2309,17 @@
       <c r="C79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="1">
-        <v>44804.5673059</v>
-      </c>
-      <c r="E79" s="1">
-        <v>44804.5714726</v>
-      </c>
-      <c r="F79" s="1" t="n">
+      <c r="D79" s="4">
+        <v>44804.567305899996</v>
+      </c>
+      <c r="E79" s="4">
+        <v>44804.571472600001</v>
+      </c>
+      <c r="F79" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -1993,17 +2329,17 @@
       <c r="C80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="1">
-        <v>44804.5714726</v>
-      </c>
-      <c r="E80" s="1">
-        <v>44804.5728614</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="D80" s="4">
+        <v>44804.571472600001</v>
+      </c>
+      <c r="E80" s="4">
+        <v>44804.572861400004</v>
+      </c>
+      <c r="F80" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>17</v>
       </c>
@@ -2013,17 +2349,17 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="1">
-        <v>44804.5728614</v>
-      </c>
-      <c r="E81" s="1">
+      <c r="D81" s="4">
+        <v>44804.572861400004</v>
+      </c>
+      <c r="E81" s="4">
         <v>44804.5770281</v>
       </c>
-      <c r="F81" s="1" t="n">
+      <c r="F81" s="2">
         <v>360000</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>15</v>
       </c>
@@ -2033,17 +2369,17 @@
       <c r="C82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="4">
         <v>44804.5770281</v>
       </c>
-      <c r="E82" s="1">
-        <v>44804.578417</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="E82" s="4">
+        <v>44804.578416999997</v>
+      </c>
+      <c r="F82" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -2053,17 +2389,17 @@
       <c r="C83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="1">
-        <v>44804.578417</v>
-      </c>
-      <c r="E83" s="1">
-        <v>44804.5798059</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="D83" s="4">
+        <v>44804.578416999997</v>
+      </c>
+      <c r="E83" s="4">
+        <v>44804.579805900001</v>
+      </c>
+      <c r="F83" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -2073,17 +2409,17 @@
       <c r="C84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="1">
-        <v>44804.5798059</v>
-      </c>
-      <c r="E84" s="1">
-        <v>44804.5811948</v>
-      </c>
-      <c r="F84" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="D84" s="4">
+        <v>44804.579805900001</v>
+      </c>
+      <c r="E84" s="4">
+        <v>44804.581194799997</v>
+      </c>
+      <c r="F84" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
@@ -2093,17 +2429,17 @@
       <c r="C85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="1">
-        <v>44804.5811948</v>
-      </c>
-      <c r="E85" s="1">
-        <v>44804.5825837</v>
-      </c>
-      <c r="F85" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="D85" s="4">
+        <v>44804.581194799997</v>
+      </c>
+      <c r="E85" s="4">
+        <v>44804.582583700001</v>
+      </c>
+      <c r="F85" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
@@ -2113,17 +2449,17 @@
       <c r="C86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="1">
-        <v>44804.5825837</v>
-      </c>
-      <c r="E86" s="1">
-        <v>44804.5839726</v>
-      </c>
-      <c r="F86" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="D86" s="4">
+        <v>44804.582583700001</v>
+      </c>
+      <c r="E86" s="4">
+        <v>44804.583972599998</v>
+      </c>
+      <c r="F86" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>15</v>
       </c>
@@ -2133,17 +2469,17 @@
       <c r="C87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="1">
-        <v>44804.5839726</v>
-      </c>
-      <c r="E87" s="1">
-        <v>44804.5853614</v>
-      </c>
-      <c r="F87" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="D87" s="4">
+        <v>44804.583972599998</v>
+      </c>
+      <c r="E87" s="4">
+        <v>44804.585361400001</v>
+      </c>
+      <c r="F87" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -2153,17 +2489,17 @@
       <c r="C88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="1">
-        <v>44804.5853614</v>
-      </c>
-      <c r="E88" s="1">
-        <v>44804.5867503</v>
-      </c>
-      <c r="F88" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="D88" s="4">
+        <v>44804.585361400001</v>
+      </c>
+      <c r="E88" s="4">
+        <v>44804.586750299997</v>
+      </c>
+      <c r="F88" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -2173,17 +2509,17 @@
       <c r="C89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="1">
-        <v>44804.5867503</v>
-      </c>
-      <c r="E89" s="1">
-        <v>44804.5881392</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="D89" s="4">
+        <v>44804.586750299997</v>
+      </c>
+      <c r="E89" s="4">
+        <v>44804.588139200001</v>
+      </c>
+      <c r="F89" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
@@ -2193,17 +2529,17 @@
       <c r="C90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="1">
-        <v>44804.5881392</v>
-      </c>
-      <c r="E90" s="1">
-        <v>44804.5895281</v>
-      </c>
-      <c r="F90" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="D90" s="4">
+        <v>44804.588139200001</v>
+      </c>
+      <c r="E90" s="4">
+        <v>44804.589528099998</v>
+      </c>
+      <c r="F90" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -2213,17 +2549,17 @@
       <c r="C91" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="1">
-        <v>44804.5895281</v>
-      </c>
-      <c r="E91" s="1">
-        <v>44804.590917</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="D91" s="4">
+        <v>44804.589528099998</v>
+      </c>
+      <c r="E91" s="4">
+        <v>44804.590917000001</v>
+      </c>
+      <c r="F91" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -2233,17 +2569,17 @@
       <c r="C92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="1">
-        <v>44804.590917</v>
-      </c>
-      <c r="E92" s="1">
-        <v>44804.5923059</v>
-      </c>
-      <c r="F92" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="D92" s="4">
+        <v>44804.590917000001</v>
+      </c>
+      <c r="E92" s="4">
+        <v>44804.592305899998</v>
+      </c>
+      <c r="F92" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -2253,17 +2589,17 @@
       <c r="C93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D93" s="1">
-        <v>44804.5923059</v>
-      </c>
-      <c r="E93" s="1">
-        <v>44804.5930003</v>
-      </c>
-      <c r="F93" s="1" t="n">
+      <c r="D93" s="4">
+        <v>44804.592305899998</v>
+      </c>
+      <c r="E93" s="4">
+        <v>44804.593000300003</v>
+      </c>
+      <c r="F93" s="2">
         <v>60000</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -2273,17 +2609,17 @@
       <c r="C94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="1">
-        <v>44804.5936948</v>
-      </c>
-      <c r="E94" s="1">
-        <v>44804.5950837</v>
-      </c>
-      <c r="F94" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="D94" s="4">
+        <v>44804.593694800002</v>
+      </c>
+      <c r="E94" s="4">
+        <v>44804.595083699998</v>
+      </c>
+      <c r="F94" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
@@ -2293,17 +2629,17 @@
       <c r="C95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D95" s="1">
-        <v>44804.5957781</v>
-      </c>
-      <c r="E95" s="1">
-        <v>44804.6027226</v>
-      </c>
-      <c r="F95" s="1" t="n">
+      <c r="D95" s="4">
+        <v>44804.595778100003</v>
+      </c>
+      <c r="E95" s="4">
+        <v>44804.602722600001</v>
+      </c>
+      <c r="F95" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
@@ -2313,17 +2649,17 @@
       <c r="C96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="1">
-        <v>44804.6027226</v>
-      </c>
-      <c r="E96" s="1">
-        <v>44804.6041114</v>
-      </c>
-      <c r="F96" s="1" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="D96" s="4">
+        <v>44804.602722600001</v>
+      </c>
+      <c r="E96" s="4">
+        <v>44804.604111400004</v>
+      </c>
+      <c r="F96" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
@@ -2333,17 +2669,17 @@
       <c r="C97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="1">
-        <v>44804.6048059</v>
-      </c>
-      <c r="E97" s="1">
-        <v>44804.6117503</v>
-      </c>
-      <c r="F97" s="1" t="n">
+      <c r="D97" s="4">
+        <v>44804.604805900002</v>
+      </c>
+      <c r="E97" s="4">
+        <v>44804.611750299999</v>
+      </c>
+      <c r="F97" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
@@ -2353,17 +2689,17 @@
       <c r="C98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D98" s="1">
-        <v>44804.6117503</v>
-      </c>
-      <c r="E98" s="1">
-        <v>44804.6186948</v>
-      </c>
-      <c r="F98" s="1" t="n">
+      <c r="D98" s="4">
+        <v>44804.611750299999</v>
+      </c>
+      <c r="E98" s="4">
+        <v>44804.618694800003</v>
+      </c>
+      <c r="F98" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -2373,17 +2709,17 @@
       <c r="C99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="1">
-        <v>44804.6186948</v>
-      </c>
-      <c r="E99" s="1">
+      <c r="D99" s="4">
+        <v>44804.618694800003</v>
+      </c>
+      <c r="E99" s="4">
         <v>44804.6256392</v>
       </c>
-      <c r="F99" s="1" t="n">
+      <c r="F99" s="2">
         <v>600000</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>17</v>
       </c>
@@ -2393,13 +2729,13 @@
       <c r="C100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="4">
         <v>44804.6256392</v>
       </c>
-      <c r="E100" s="1">
-        <v>44804.6325837</v>
-      </c>
-      <c r="F100" s="1" t="n">
+      <c r="E100" s="4">
+        <v>44804.632583699997</v>
+      </c>
+      <c r="F100" s="2">
         <v>600000</v>
       </c>
     </row>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Übersicht über alle Bestellungen</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Dauer</t>
   </si>
   <si>
-    <t>bestellung3834</t>
+    <t>bestellung1411</t>
   </si>
   <si>
     <t>Fahrrad</t>
@@ -56,7 +56,7 @@
     <t>kundePruefen</t>
   </si>
   <si>
-    <t>Justin Torres</t>
+    <t>Travis Garcia</t>
   </si>
   <si>
     <t>bestellungSichten</t>
@@ -74,34 +74,46 @@
     <t>bedarfPruefen</t>
   </si>
   <si>
-    <t>Travis Butler</t>
+    <t>John Brown</t>
   </si>
   <si>
     <t>bedarfNachbearbeiten</t>
   </si>
   <si>
-    <t>problemBeschreiben</t>
-  </si>
-  <si>
     <t>stuecklisteBetrachten</t>
   </si>
   <si>
-    <t>rohmaterialVerfuegbarkeitPruefen</t>
-  </si>
-  <si>
-    <t>materialbedarfErstellen</t>
-  </si>
-  <si>
     <t>produktionsauftragErstellen</t>
   </si>
   <si>
+    <t>produktionsauftragBegutachten</t>
+  </si>
+  <si>
+    <t>Roberto Müller</t>
+  </si>
+  <si>
+    <t>transportieren</t>
+  </si>
+  <si>
+    <t>Förderband 0</t>
+  </si>
+  <si>
+    <t>bearbeiten</t>
+  </si>
+  <si>
+    <t>Maschine 0</t>
+  </si>
+  <si>
+    <t>kommissionieren</t>
+  </si>
+  <si>
+    <t>auftragsbestaetigungErstellen</t>
+  </si>
+  <si>
     <t>rechnungErstellen</t>
   </si>
   <si>
-    <t>Frank Müller</t>
-  </si>
-  <si>
-    <t>auftragsbestaetigungErstellen</t>
+    <t>Justin Gonzalez</t>
   </si>
   <si>
     <t>auftragsbestaetigungSenden</t>
@@ -196,13 +208,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>44841.2501701</v>
+        <v>44886.3230445</v>
       </c>
       <c r="E3" s="1">
-        <v>44841.3411423</v>
+        <v>44886.3688778</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7860</v>
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -212,7 +224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -254,10 +266,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>44841.2501701</v>
+        <v>44886.3230445</v>
       </c>
       <c r="E3" s="1">
-        <v>44841.2529479</v>
+        <v>44886.3258222</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>240</v>
@@ -274,13 +286,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>44841.2529479</v>
+        <v>44886.3258222</v>
       </c>
       <c r="E4" s="1">
-        <v>44841.2564201</v>
+        <v>44886.3306833</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -294,13 +306,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>44841.2564201</v>
+        <v>44886.3306833</v>
       </c>
       <c r="E5" s="1">
-        <v>44841.2598923</v>
+        <v>44886.3320722</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -314,10 +326,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>44841.2598923</v>
+        <v>44886.3320722</v>
       </c>
       <c r="E6" s="1">
-        <v>44841.2626701</v>
+        <v>44886.33485</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>240</v>
@@ -334,13 +346,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>44841.2626701</v>
+        <v>44886.33485</v>
       </c>
       <c r="E7" s="1">
-        <v>44841.276559</v>
+        <v>44886.3355445</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -354,10 +366,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>44841.276559</v>
+        <v>44886.3355445</v>
       </c>
       <c r="E8" s="1">
-        <v>44841.2800312</v>
+        <v>44886.3390167</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>300</v>
@@ -374,10 +386,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>44841.2800312</v>
+        <v>44886.3390167</v>
       </c>
       <c r="E9" s="1">
-        <v>44841.2835034</v>
+        <v>44886.3424889</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>300</v>
@@ -394,10 +406,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>44841.2835034</v>
+        <v>44886.3424889</v>
       </c>
       <c r="E10" s="1">
-        <v>44841.2869757</v>
+        <v>44886.3459611</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>300</v>
@@ -408,16 +420,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>44841.2869757</v>
+        <v>44886.3459611</v>
       </c>
       <c r="E11" s="1">
-        <v>44841.2904479</v>
+        <v>44886.3494333</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>300</v>
@@ -428,19 +440,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>44841.2904479</v>
+        <v>44886.3494333</v>
       </c>
       <c r="E12" s="1">
-        <v>44841.2939201</v>
+        <v>44886.3542945</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -448,19 +460,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>44841.2939201</v>
+        <v>44886.3542945</v>
       </c>
       <c r="E13" s="1">
-        <v>44841.2973923</v>
+        <v>44886.3549889</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -468,19 +480,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>44841.2973923</v>
+        <v>44886.3549889</v>
       </c>
       <c r="E14" s="1">
-        <v>44841.3008646</v>
+        <v>44886.3570722</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -488,19 +500,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
-        <v>44841.3008646</v>
+        <v>44886.3570722</v>
       </c>
       <c r="E15" s="1">
-        <v>44841.3043368</v>
+        <v>44886.3584611</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -508,19 +520,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>44841.3043368</v>
+        <v>44886.3584611</v>
       </c>
       <c r="E16" s="1">
-        <v>44841.307809</v>
+        <v>44886.3654056</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -528,19 +540,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1">
-        <v>44841.307809</v>
+        <v>44886.3612389</v>
       </c>
       <c r="E17" s="1">
-        <v>44841.3085034</v>
+        <v>44886.3681833</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -548,178 +560,18 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>44841.3085034</v>
+        <v>44886.3681833</v>
       </c>
       <c r="E18" s="1">
-        <v>44841.3119757</v>
+        <v>44886.3688778</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1">
-        <v>44841.3119757</v>
-      </c>
-      <c r="E19" s="1">
-        <v>44841.3154479</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1">
-        <v>44841.3154479</v>
-      </c>
-      <c r="E20" s="1">
-        <v>44841.3161423</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44841.3161423</v>
-      </c>
-      <c r="E21" s="1">
-        <v>44841.3196146</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44841.3196146</v>
-      </c>
-      <c r="E22" s="1">
-        <v>44841.3230868</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <v>44841.3230868</v>
-      </c>
-      <c r="E23" s="1">
-        <v>44841.326559</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1">
-        <v>44841.326559</v>
-      </c>
-      <c r="E24" s="1">
-        <v>44841.3335034</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44841.3335034</v>
-      </c>
-      <c r="E25" s="1">
-        <v>44841.3404479</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44841.3404479</v>
-      </c>
-      <c r="E26" s="1">
-        <v>44841.3411423</v>
-      </c>
-      <c r="F26" s="0" t="n">
         <v>60</v>
       </c>
     </row>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Übersicht über alle Bestellungen</t>
   </si>
@@ -35,10 +35,13 @@
     <t>Dauer</t>
   </si>
   <si>
-    <t>bestellung1411</t>
-  </si>
-  <si>
-    <t>Fahrrad</t>
+    <t>bestellung6524</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>bestellung7162</t>
   </si>
   <si>
     <t>Aufgabenbezeichnung</t>
@@ -56,12 +59,15 @@
     <t>kundePruefen</t>
   </si>
   <si>
-    <t>Travis Garcia</t>
+    <t>Justin Brandt</t>
   </si>
   <si>
     <t>bestellungSichten</t>
   </si>
   <si>
+    <t>bestellungKlaeren</t>
+  </si>
+  <si>
     <t>auftragInERPSystemEintragen</t>
   </si>
   <si>
@@ -74,49 +80,103 @@
     <t>bedarfPruefen</t>
   </si>
   <si>
-    <t>John Brown</t>
+    <t>Justin Brown</t>
   </si>
   <si>
     <t>bedarfNachbearbeiten</t>
   </si>
   <si>
+    <t>problemBeschreiben</t>
+  </si>
+  <si>
     <t>stuecklisteBetrachten</t>
   </si>
   <si>
+    <t>rohmaterialVerfuegbarkeitPruefen</t>
+  </si>
+  <si>
+    <t>materialbedarfErstellen</t>
+  </si>
+  <si>
+    <t>materialbedarfPruefen</t>
+  </si>
+  <si>
+    <t>Justin Butler</t>
+  </si>
+  <si>
+    <t>lieferantenAussuchen</t>
+  </si>
+  <si>
     <t>produktionsauftragErstellen</t>
   </si>
   <si>
+    <t>materialBestellen</t>
+  </si>
+  <si>
     <t>produktionsauftragBegutachten</t>
   </si>
   <si>
-    <t>Roberto Müller</t>
-  </si>
-  <si>
-    <t>transportieren</t>
-  </si>
-  <si>
-    <t>Förderband 0</t>
-  </si>
-  <si>
-    <t>bearbeiten</t>
-  </si>
-  <si>
-    <t>Maschine 0</t>
-  </si>
-  <si>
-    <t>kommissionieren</t>
+    <t>Travis Schubert</t>
+  </si>
+  <si>
+    <t>rechnungBegleichen</t>
+  </si>
+  <si>
+    <t>John Garcia</t>
+  </si>
+  <si>
+    <t>lieferantAnfragenUndPruefen</t>
+  </si>
+  <si>
+    <t>vermerkImSCMSystemVornehmen</t>
+  </si>
+  <si>
+    <t>bestellung6524_Gehaeuse</t>
+  </si>
+  <si>
+    <t>lieferungEntgegennehmen</t>
+  </si>
+  <si>
+    <t>Martin Brown</t>
+  </si>
+  <si>
+    <t>bestellung7162_Gehaeuse</t>
+  </si>
+  <si>
+    <t>bestellung7162_Peripherie</t>
+  </si>
+  <si>
+    <t>bestellung6524_Loetpaste</t>
+  </si>
+  <si>
+    <t>bestellung7162_PCB</t>
+  </si>
+  <si>
+    <t>bestellung7162_Loetpaste</t>
+  </si>
+  <si>
+    <t>bestellung6524_Elektrische_Bauelemente</t>
+  </si>
+  <si>
+    <t>bestellung6524_Peripherie</t>
+  </si>
+  <si>
+    <t>bestellung6524_PCB</t>
+  </si>
+  <si>
+    <t>bestellung7162_Elektrische_Bauelemente</t>
+  </si>
+  <si>
+    <t>lieferungEinlagern</t>
+  </si>
+  <si>
+    <t>rechnungErstellen</t>
+  </si>
+  <si>
+    <t>auftragsbestaetigungSenden</t>
   </si>
   <si>
     <t>auftragsbestaetigungErstellen</t>
-  </si>
-  <si>
-    <t>rechnungErstellen</t>
-  </si>
-  <si>
-    <t>Justin Gonzalez</t>
-  </si>
-  <si>
-    <t>auftragsbestaetigungSenden</t>
   </si>
 </sst>
 </file>
@@ -166,7 +226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -208,13 +268,33 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>44886.3230445</v>
+        <v>44897.2918974</v>
       </c>
       <c r="E3" s="1">
-        <v>44886.3688778</v>
+        <v>44897.7252307</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3960</v>
+        <v>37440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44897.2918974</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44897.7085641</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
@@ -224,7 +304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -240,16 +320,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>6</v>
@@ -260,16 +340,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>44886.3230445</v>
+        <v>44897.2918974</v>
       </c>
       <c r="E3" s="1">
-        <v>44886.3258222</v>
+        <v>44897.2946752</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>240</v>
@@ -277,22 +357,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="1">
-        <v>44886.3258222</v>
+        <v>44897.2946752</v>
       </c>
       <c r="E4" s="1">
-        <v>44886.3306833</v>
+        <v>44897.2974529</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>420</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -303,36 +383,36 @@
         <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>44886.3306833</v>
+        <v>44897.2974529</v>
       </c>
       <c r="E5" s="1">
-        <v>44886.3320722</v>
+        <v>44897.3023141</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>44886.3320722</v>
+        <v>44897.3023141</v>
       </c>
       <c r="E6" s="1">
-        <v>44886.33485</v>
+        <v>44897.3071752</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -340,39 +420,39 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>44886.33485</v>
+        <v>44897.3071752</v>
       </c>
       <c r="E7" s="1">
-        <v>44886.3355445</v>
+        <v>44897.3092585</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>44886.3355445</v>
+        <v>44897.3092585</v>
       </c>
       <c r="E8" s="1">
-        <v>44886.3390167</v>
+        <v>44897.3106474</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -380,39 +460,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>44886.3390167</v>
+        <v>44897.3106474</v>
       </c>
       <c r="E9" s="1">
-        <v>44886.3424889</v>
+        <v>44897.3175918</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>44886.3424889</v>
+        <v>44897.3175918</v>
       </c>
       <c r="E10" s="1">
-        <v>44886.3459611</v>
+        <v>44897.3203696</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -420,39 +500,39 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>44886.3459611</v>
+        <v>44897.3203696</v>
       </c>
       <c r="E11" s="1">
-        <v>44886.3494333</v>
+        <v>44897.3252307</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>44886.3494333</v>
+        <v>44897.3252307</v>
       </c>
       <c r="E12" s="1">
-        <v>44886.3542945</v>
+        <v>44897.3259252</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>420</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -460,39 +540,39 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>44886.3542945</v>
+        <v>44897.3259252</v>
       </c>
       <c r="E13" s="1">
-        <v>44886.3549889</v>
+        <v>44897.3273141</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
-        <v>44886.3549889</v>
+        <v>44897.3273141</v>
       </c>
       <c r="E14" s="1">
-        <v>44886.3570722</v>
+        <v>44897.3307863</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -500,39 +580,39 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
-        <v>44886.3570722</v>
+        <v>44897.3307863</v>
       </c>
       <c r="E15" s="1">
-        <v>44886.3584611</v>
+        <v>44897.3335641</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
-        <v>44886.3584611</v>
+        <v>44897.3335641</v>
       </c>
       <c r="E16" s="1">
-        <v>44886.3654056</v>
+        <v>44897.3370363</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -540,38 +620,3518 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>44886.3612389</v>
+        <v>44897.3370363</v>
       </c>
       <c r="E17" s="1">
-        <v>44886.3681833</v>
+        <v>44897.3377307</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44897.3377307</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44897.3412029</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44897.3412029</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44897.3446752</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44897.3446752</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44897.3481474</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44897.3481474</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44897.3516196</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44897.3516196</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44897.3550918</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44897.3550918</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44897.3585641</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44897.3585641</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44897.3620363</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44897.3620363</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44897.3627307</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44897.3627307</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44897.3634252</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44897.3634252</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44897.3641196</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44897.3641196</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44897.3648141</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44897.3648141</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44897.3662029</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44897.3662029</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44897.3675918</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44897.3675918</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44897.3682863</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44897.3682863</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44897.3717585</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44897.3717585</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44897.3724529</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44897.3724529</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44897.3759252</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44897.3759252</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44897.3766196</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44897.3766196</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44897.3800918</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44897.3800918</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44897.3807863</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44897.3807863</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44897.3842585</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44897.3842585</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44897.3849529</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44897.3849529</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44897.3884252</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44897.3884252</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44897.3891196</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44897.3891196</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44897.3925918</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44897.3925918</v>
+      </c>
+      <c r="E43" s="1">
+        <v>44897.3932863</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44897.3932863</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44897.3939807</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44897.3939807</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44897.3946752</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44897.3946752</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44897.3981474</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44897.3981474</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44897.3988418</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44897.3988418</v>
+      </c>
+      <c r="E48" s="1">
+        <v>44897.3995363</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44897.3995363</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44897.4030085</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44897.4016196</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44897.4023141</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44897.4030085</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44897.4037029</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44897.4037029</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44897.4043974</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44897.4043974</v>
+      </c>
+      <c r="E53" s="1">
+        <v>44897.4078696</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44897.4078696</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44897.4085641</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44897.4085641</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44897.4092585</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44897.4092585</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44897.4127307</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44897.4120363</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44897.4127307</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44897.4127307</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44897.4134252</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44897.4134252</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44897.4168974</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44897.4148141</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44897.4155085</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44897.4168974</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44897.4203696</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44897.4196752</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44897.4231474</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44897.4231474</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44897.4266196</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44897.4259252</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44897.4266196</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44897.4266196</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44897.4300918</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44897.4300918</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44897.4335641</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44897.4328696</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44897.4363418</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44897.4363418</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44897.4370363</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44897.4363418</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44897.4398141</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44897.4398141</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44897.4432863</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44897.4432863</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44897.4467585</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44886.3681833</v>
-      </c>
-      <c r="E18" s="1">
-        <v>44886.3688778</v>
-      </c>
-      <c r="F18" s="0" t="n">
+      <c r="D72" s="1">
+        <v>44897.4467585</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44897.4516196</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44897.4516196</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44897.4523141</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44897.4523141</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44897.4530085</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44897.4530085</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44897.4564807</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44897.4564807</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44897.4599529</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44897.4564807</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44897.4571752</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44897.4599529</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44897.4648141</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="1">
+        <v>44897.4634252</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44897.4641196</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="1">
+        <v>44897.4648141</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44897.4682863</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44897.4682863</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44897.4717585</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44897.4717585</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44897.4724529</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44897.4724529</v>
+      </c>
+      <c r="E83" s="1">
+        <v>44897.4731474</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44897.4731474</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44897.4766196</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44897.4766196</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44897.4800918</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44897.4800918</v>
+      </c>
+      <c r="E86" s="1">
+        <v>44897.4807863</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44897.4807863</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44897.4842585</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44897.4814807</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44897.4821752</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44897.4842585</v>
+      </c>
+      <c r="E89" s="1">
+        <v>44897.4877307</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="1">
+        <v>44897.4877307</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44897.4912029</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44897.4912029</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44897.4918974</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44897.4918974</v>
+      </c>
+      <c r="E92" s="1">
+        <v>44897.4946752</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44897.4946752</v>
+      </c>
+      <c r="E93" s="1">
+        <v>44897.4974529</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44897.4960641</v>
+      </c>
+      <c r="E94" s="1">
+        <v>44897.4967585</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44897.4974529</v>
+      </c>
+      <c r="E95" s="1">
+        <v>44897.5009252</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44897.5009252</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44897.5016196</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" s="1">
+        <v>44897.5016196</v>
+      </c>
+      <c r="E97" s="1">
+        <v>44897.5050918</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" s="1">
+        <v>44897.5050918</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44897.5085641</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44897.5085641</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44897.5120363</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44897.5120363</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44897.5148141</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="1">
+        <v>44897.5148141</v>
+      </c>
+      <c r="E101" s="1">
+        <v>44897.5175918</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="1">
+        <v>44897.5175918</v>
+      </c>
+      <c r="E102" s="1">
+        <v>44897.5182863</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="1">
+        <v>44897.5182863</v>
+      </c>
+      <c r="E103" s="1">
+        <v>44897.5217585</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="1">
+        <v>44897.5217585</v>
+      </c>
+      <c r="E104" s="1">
+        <v>44897.5252307</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="1">
+        <v>44897.5252307</v>
+      </c>
+      <c r="E105" s="1">
+        <v>44897.5287029</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="1">
+        <v>44897.5280085</v>
+      </c>
+      <c r="E106" s="1">
+        <v>44897.5287029</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="1">
+        <v>44897.5287029</v>
+      </c>
+      <c r="E107" s="1">
+        <v>44897.5321752</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="1">
+        <v>44897.5321752</v>
+      </c>
+      <c r="E108" s="1">
+        <v>44897.5356474</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="1">
+        <v>44897.5356474</v>
+      </c>
+      <c r="E109" s="1">
+        <v>44897.5391196</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="1">
+        <v>44897.5391196</v>
+      </c>
+      <c r="E110" s="1">
+        <v>44897.5425918</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="1">
+        <v>44897.5425918</v>
+      </c>
+      <c r="E111" s="1">
+        <v>44897.5460641</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="1">
+        <v>44897.5460641</v>
+      </c>
+      <c r="E112" s="1">
+        <v>44897.5495363</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="1">
+        <v>44897.5474529</v>
+      </c>
+      <c r="E113" s="1">
+        <v>44897.5509252</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="1">
+        <v>44897.5495363</v>
+      </c>
+      <c r="E114" s="1">
+        <v>44897.5530085</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="1">
+        <v>44897.5530085</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44897.5564807</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" s="1">
+        <v>44897.5564807</v>
+      </c>
+      <c r="E116" s="1">
+        <v>44897.5599529</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="1">
+        <v>44897.5557863</v>
+      </c>
+      <c r="E117" s="1">
+        <v>44897.5564807</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="1">
+        <v>44897.5599529</v>
+      </c>
+      <c r="E118" s="1">
+        <v>44897.5634252</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="1">
+        <v>44897.5627307</v>
+      </c>
+      <c r="E119" s="1">
+        <v>44897.5662029</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="1">
+        <v>44897.5641196</v>
+      </c>
+      <c r="E120" s="1">
+        <v>44897.5648141</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="1">
+        <v>44897.5662029</v>
+      </c>
+      <c r="E121" s="1">
+        <v>44897.5696752</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="1">
+        <v>44897.5689807</v>
+      </c>
+      <c r="E122" s="1">
+        <v>44897.5696752</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="1">
+        <v>44897.5696752</v>
+      </c>
+      <c r="E123" s="1">
+        <v>44897.5745363</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="1">
+        <v>44897.5731474</v>
+      </c>
+      <c r="E124" s="1">
+        <v>44897.5759252</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="1">
+        <v>44897.5759252</v>
+      </c>
+      <c r="E125" s="1">
+        <v>44897.5787029</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" s="1">
+        <v>44897.5787029</v>
+      </c>
+      <c r="E126" s="1">
+        <v>44897.5814807</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="1">
+        <v>44897.5814807</v>
+      </c>
+      <c r="E127" s="1">
+        <v>44897.5863418</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" s="1">
+        <v>44897.5863418</v>
+      </c>
+      <c r="E128" s="1">
+        <v>44897.5898141</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" s="1">
+        <v>44897.5898141</v>
+      </c>
+      <c r="E129" s="1">
+        <v>44897.5932863</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="1">
+        <v>44897.5932863</v>
+      </c>
+      <c r="E130" s="1">
+        <v>44897.5939807</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="1">
+        <v>44897.5939807</v>
+      </c>
+      <c r="E131" s="1">
+        <v>44897.5974529</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" s="1">
+        <v>44897.5974529</v>
+      </c>
+      <c r="E132" s="1">
+        <v>44897.6009252</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="1">
+        <v>44897.6009252</v>
+      </c>
+      <c r="E133" s="1">
+        <v>44897.6043974</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="1">
+        <v>44897.6043974</v>
+      </c>
+      <c r="E134" s="1">
+        <v>44897.6050918</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" s="1">
+        <v>44897.6050918</v>
+      </c>
+      <c r="E135" s="1">
+        <v>44897.6085641</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" s="1">
+        <v>44897.6085641</v>
+      </c>
+      <c r="E136" s="1">
+        <v>44897.6092585</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" s="1">
+        <v>44897.6092585</v>
+      </c>
+      <c r="E137" s="1">
+        <v>44897.6127307</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="1">
+        <v>44897.6127307</v>
+      </c>
+      <c r="E138" s="1">
+        <v>44897.6162029</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="1">
+        <v>44897.6162029</v>
+      </c>
+      <c r="E139" s="1">
+        <v>44897.6196752</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="1">
+        <v>44897.6196752</v>
+      </c>
+      <c r="E140" s="1">
+        <v>44897.6203696</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="1">
+        <v>44897.6203696</v>
+      </c>
+      <c r="E141" s="1">
+        <v>44897.6231474</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" s="1">
+        <v>44897.6231474</v>
+      </c>
+      <c r="E142" s="1">
+        <v>44897.6238418</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="1">
+        <v>44897.6238418</v>
+      </c>
+      <c r="E143" s="1">
+        <v>44897.6245363</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="1">
+        <v>44897.6245363</v>
+      </c>
+      <c r="E144" s="1">
+        <v>44897.6252307</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" s="1">
+        <v>44897.6252307</v>
+      </c>
+      <c r="E145" s="1">
+        <v>44897.6287029</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" s="1">
+        <v>44897.6287029</v>
+      </c>
+      <c r="E146" s="1">
+        <v>44897.6321752</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" s="1">
+        <v>44897.6321752</v>
+      </c>
+      <c r="E147" s="1">
+        <v>44897.6328696</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="1">
+        <v>44897.6328696</v>
+      </c>
+      <c r="E148" s="1">
+        <v>44897.6335641</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="1">
+        <v>44897.6335641</v>
+      </c>
+      <c r="E149" s="1">
+        <v>44897.6342585</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" s="1">
+        <v>44897.6342585</v>
+      </c>
+      <c r="E150" s="1">
+        <v>44897.6377307</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" s="1">
+        <v>44897.6377307</v>
+      </c>
+      <c r="E151" s="1">
+        <v>44897.6412029</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" s="1">
+        <v>44897.6412029</v>
+      </c>
+      <c r="E152" s="1">
+        <v>44897.6446752</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" s="1">
+        <v>44897.6446752</v>
+      </c>
+      <c r="E153" s="1">
+        <v>44897.6481474</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" s="1">
+        <v>44897.6481474</v>
+      </c>
+      <c r="E154" s="1">
+        <v>44897.6516196</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" s="1">
+        <v>44897.6516196</v>
+      </c>
+      <c r="E155" s="1">
+        <v>44897.6550918</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="1">
+        <v>44897.6550918</v>
+      </c>
+      <c r="E156" s="1">
+        <v>44897.6585641</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="1">
+        <v>44897.6585641</v>
+      </c>
+      <c r="E157" s="1">
+        <v>44897.6620363</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" s="1">
+        <v>44897.6620363</v>
+      </c>
+      <c r="E158" s="1">
+        <v>44897.6655085</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" s="1">
+        <v>44897.6655085</v>
+      </c>
+      <c r="E159" s="1">
+        <v>44897.6689807</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="1">
+        <v>44897.6689807</v>
+      </c>
+      <c r="E160" s="1">
+        <v>44897.6703696</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="1">
+        <v>44897.6703696</v>
+      </c>
+      <c r="E161" s="1">
+        <v>44897.6717585</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D162" s="1">
+        <v>44897.6717585</v>
+      </c>
+      <c r="E162" s="1">
+        <v>44897.6731474</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163" s="1">
+        <v>44897.6731474</v>
+      </c>
+      <c r="E163" s="1">
+        <v>44897.6745363</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D164" s="1">
+        <v>44897.6745363</v>
+      </c>
+      <c r="E164" s="1">
+        <v>44897.6759252</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" s="1">
+        <v>44897.6759252</v>
+      </c>
+      <c r="E165" s="1">
+        <v>44897.6773141</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166" s="1">
+        <v>44897.6773141</v>
+      </c>
+      <c r="E166" s="1">
+        <v>44897.6787029</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" s="1">
+        <v>44897.6787029</v>
+      </c>
+      <c r="E167" s="1">
+        <v>44897.6800918</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D168" s="1">
+        <v>44897.6800918</v>
+      </c>
+      <c r="E168" s="1">
+        <v>44897.6814807</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169" s="1">
+        <v>44897.6814807</v>
+      </c>
+      <c r="E169" s="1">
+        <v>44897.6828696</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" s="1">
+        <v>44897.6828696</v>
+      </c>
+      <c r="E170" s="1">
+        <v>44897.6835641</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" s="1">
+        <v>44897.6835641</v>
+      </c>
+      <c r="E171" s="1">
+        <v>44897.6842585</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" s="1">
+        <v>44897.6842585</v>
+      </c>
+      <c r="E172" s="1">
+        <v>44897.6849529</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" s="1">
+        <v>44897.6849529</v>
+      </c>
+      <c r="E173" s="1">
+        <v>44897.6856474</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" s="1">
+        <v>44897.6856474</v>
+      </c>
+      <c r="E174" s="1">
+        <v>44897.6863418</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="1">
+        <v>44897.6863418</v>
+      </c>
+      <c r="E175" s="1">
+        <v>44897.6870363</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" s="1">
+        <v>44897.6870363</v>
+      </c>
+      <c r="E176" s="1">
+        <v>44897.6877307</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" s="1">
+        <v>44897.6877307</v>
+      </c>
+      <c r="E177" s="1">
+        <v>44897.6884252</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" s="1">
+        <v>44897.6884252</v>
+      </c>
+      <c r="E178" s="1">
+        <v>44897.6891196</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D179" s="1">
+        <v>44897.6891196</v>
+      </c>
+      <c r="E179" s="1">
+        <v>44897.6960641</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="1">
+        <v>44897.6960641</v>
+      </c>
+      <c r="E180" s="1">
+        <v>44897.6974529</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="1">
+        <v>44897.6974529</v>
+      </c>
+      <c r="E181" s="1">
+        <v>44897.6988418</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="1">
+        <v>44897.6974529</v>
+      </c>
+      <c r="E182" s="1">
+        <v>44897.6981474</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="1">
+        <v>44897.6981474</v>
+      </c>
+      <c r="E183" s="1">
+        <v>44897.6988418</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" s="1">
+        <v>44897.6988418</v>
+      </c>
+      <c r="E184" s="1">
+        <v>44897.6995363</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="1">
+        <v>44897.6995363</v>
+      </c>
+      <c r="E185" s="1">
+        <v>44897.7064807</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D186" s="1">
+        <v>44897.7009252</v>
+      </c>
+      <c r="E186" s="1">
+        <v>44897.7078696</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="1">
+        <v>44897.7078696</v>
+      </c>
+      <c r="E187" s="1">
+        <v>44897.7085641</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D188" s="1">
+        <v>44897.7085641</v>
+      </c>
+      <c r="E188" s="1">
+        <v>44897.7155085</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="1">
+        <v>44897.7155085</v>
+      </c>
+      <c r="E189" s="1">
+        <v>44897.7162029</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="1">
+        <v>44897.7162029</v>
+      </c>
+      <c r="E190" s="1">
+        <v>44897.7231474</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D191" s="1">
+        <v>44897.7175918</v>
+      </c>
+      <c r="E191" s="1">
+        <v>44897.7245363</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="1">
+        <v>44897.7245363</v>
+      </c>
+      <c r="E192" s="1">
+        <v>44897.7252307</v>
+      </c>
+      <c r="F192" s="0" t="n">
         <v>60</v>
       </c>
     </row>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Übersicht über alle Bestellungen</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Dauer</t>
   </si>
   <si>
-    <t>bestellung6034</t>
+    <t>bestellung5031</t>
   </si>
   <si>
     <t>Radar</t>
@@ -51,6 +51,102 @@
   </si>
   <si>
     <t>Aufgabenende</t>
+  </si>
+  <si>
+    <t>kundePruefen</t>
+  </si>
+  <si>
+    <t>Frank Torres</t>
+  </si>
+  <si>
+    <t>bestellungSichten</t>
+  </si>
+  <si>
+    <t>auftragInERPSystemEintragen</t>
+  </si>
+  <si>
+    <t>verfuegbarkeitPruefen</t>
+  </si>
+  <si>
+    <t>produktionsbedarfErstellen</t>
+  </si>
+  <si>
+    <t>bedarfPruefen</t>
+  </si>
+  <si>
+    <t>Andreas Butler</t>
+  </si>
+  <si>
+    <t>bedarfNachbearbeiten</t>
+  </si>
+  <si>
+    <t>stuecklisteBetrachten</t>
+  </si>
+  <si>
+    <t>rohmaterialVerfuegbarkeitPruefen</t>
+  </si>
+  <si>
+    <t>materialbedarfErstellen</t>
+  </si>
+  <si>
+    <t>materialbedarfPruefen</t>
+  </si>
+  <si>
+    <t>Roberto Schubert</t>
+  </si>
+  <si>
+    <t>problemBeschreiben</t>
+  </si>
+  <si>
+    <t>produktionsauftragErstellen</t>
+  </si>
+  <si>
+    <t>lieferantenAussuchen</t>
+  </si>
+  <si>
+    <t>lieferantAnfragenUndPruefen</t>
+  </si>
+  <si>
+    <t>produktionsauftragBegutachten</t>
+  </si>
+  <si>
+    <t>Roberto Brown</t>
+  </si>
+  <si>
+    <t>materialBestellen</t>
+  </si>
+  <si>
+    <t>vermerkImSCMSystemVornehmen</t>
+  </si>
+  <si>
+    <t>rechnungBegleichen</t>
+  </si>
+  <si>
+    <t>Frank Hill</t>
+  </si>
+  <si>
+    <t>bestellung5031_Gehaeuse</t>
+  </si>
+  <si>
+    <t>lieferungEntgegennehmen</t>
+  </si>
+  <si>
+    <t>Andrew Spector</t>
+  </si>
+  <si>
+    <t>lieferungEinlagern</t>
+  </si>
+  <si>
+    <t>bestellung5031_Loetpaste</t>
+  </si>
+  <si>
+    <t>bestellung5031_PCB</t>
+  </si>
+  <si>
+    <t>bestellung5031_Peripherie</t>
+  </si>
+  <si>
+    <t>bestellung5031_Elektrische_Bauelemente</t>
   </si>
 </sst>
 </file>
@@ -131,7 +227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -142,7 +238,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>44914.2923268</v>
+        <v>44972.2921996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44972.5005329</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
@@ -152,7 +254,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -183,6 +285,1966 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44972.2921996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44972.2949774</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44972.2949774</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44972.2998385</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44972.2998385</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44972.3012274</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44972.3012274</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44972.3040052</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44972.3040052</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44972.3046996</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44972.3046996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44972.3081718</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44972.3081718</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44972.3116441</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44972.3116441</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44972.3151163</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44972.3151163</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44972.3158107</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44972.3158107</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44972.3165052</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44972.3165052</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44972.3178941</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44972.3178941</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44972.3185885</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44972.3185885</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44972.3220607</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44972.3220607</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44972.3227552</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44972.3227552</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44972.3262274</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44972.3262274</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44972.3269218</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44972.3269218</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44972.3303941</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44972.3303941</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44972.3310885</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44972.3310885</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44972.3345607</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44972.3338663</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44972.3345607</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44972.3345607</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44972.3352552</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44972.3352552</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44972.3359496</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44972.3359496</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44972.3394218</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44972.3387274</v>
+      </c>
+      <c r="E26" s="1">
+        <v>44972.3394218</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44972.3394218</v>
+      </c>
+      <c r="E27" s="1">
+        <v>44972.3401163</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44972.3401163</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44972.3435885</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44972.3428941</v>
+      </c>
+      <c r="E29" s="1">
+        <v>44972.3435885</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44972.3435885</v>
+      </c>
+      <c r="E30" s="1">
+        <v>44972.3470607</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44972.3449774</v>
+      </c>
+      <c r="E31" s="1">
+        <v>44972.3484496</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44972.3484496</v>
+      </c>
+      <c r="E32" s="1">
+        <v>44972.3519218</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44972.3519218</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44972.3553941</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44972.3553941</v>
+      </c>
+      <c r="E34" s="1">
+        <v>44972.3581718</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44972.3581718</v>
+      </c>
+      <c r="E35" s="1">
+        <v>44972.3588663</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44972.3588663</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44972.3623385</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44972.3623385</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44972.3671996</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44972.3644218</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44972.3678941</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44972.3678941</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44972.3713663</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44972.3713663</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44972.3720607</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44972.3720607</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44972.3755329</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44972.3755329</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44972.3762274</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44972.3762274</v>
+      </c>
+      <c r="E43" s="1">
+        <v>44972.3796996</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44972.3790052</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44972.3796996</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44972.3796996</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44972.3831718</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44972.3831718</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44972.3838663</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44972.3838663</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44972.3873385</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44972.3873385</v>
+      </c>
+      <c r="E48" s="1">
+        <v>44972.3901163</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44972.3901163</v>
+      </c>
+      <c r="E49" s="1">
+        <v>44972.3935885</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44972.3935885</v>
+      </c>
+      <c r="E50" s="1">
+        <v>44972.3942829</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44972.3942829</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44972.3977552</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44972.3977552</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44972.4012274</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44972.4012274</v>
+      </c>
+      <c r="E53" s="1">
+        <v>44972.4046996</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44972.4046996</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44972.4053941</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44972.4053941</v>
+      </c>
+      <c r="E55" s="1">
+        <v>44972.4088663</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44972.4088663</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44972.4123385</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44972.4123385</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44972.4158107</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44972.4158107</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44972.4192829</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44972.4192829</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44972.4227552</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44972.4227552</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44972.4255329</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44972.4234496</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44972.4269218</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44972.4255329</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44972.4290052</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44972.4290052</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44972.4324774</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44972.4324774</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44972.4359496</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44972.4359496</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44972.4394218</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44972.4394218</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44972.4442829</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44972.4428941</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44972.4463663</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44972.4463663</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44972.4491441</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44972.4491441</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44972.4519218</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44972.4519218</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44972.4553941</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44972.4553941</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44972.4588663</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44972.4574774</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44972.4581718</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44972.4588663</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44972.4623385</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44972.4623385</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44972.4658107</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44972.4658107</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44972.4665052</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44972.4665052</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44972.4671996</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="1">
+        <v>44972.4671996</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44972.4706718</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="1">
+        <v>44972.4706718</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44972.4741441</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="1">
+        <v>44972.4741441</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44972.4769218</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="1">
+        <v>44972.4769218</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44972.4796996</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="1">
+        <v>44972.4796996</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44972.4831718</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="1">
+        <v>44972.4831718</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44972.4866441</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="1">
+        <v>44972.4866441</v>
+      </c>
+      <c r="E83" s="1">
+        <v>44972.4901163</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="1">
+        <v>44972.4901163</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44972.4935885</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="1">
+        <v>44972.4915052</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44972.4921996</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="1">
+        <v>44972.4928941</v>
+      </c>
+      <c r="E86" s="1">
+        <v>44972.4935885</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="1">
+        <v>44972.4935885</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44972.4970607</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="1">
+        <v>44972.4963663</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44972.4970607</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="1">
+        <v>44972.4970607</v>
+      </c>
+      <c r="E89" s="1">
+        <v>44972.4977552</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="1">
+        <v>44972.4977552</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44972.4991441</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="1">
+        <v>44972.4991441</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44972.4998385</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="1">
+        <v>44972.4998385</v>
+      </c>
+      <c r="E92" s="1">
+        <v>44972.5005329</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="1">
+        <v>44972.5005329</v>
+      </c>
+      <c r="E93" s="1">
+        <v>44972.5040052</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="1">
+        <v>44972.5040052</v>
+      </c>
+      <c r="E94" s="1">
+        <v>44972.5074774</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="1">
+        <v>44972.5074774</v>
+      </c>
+      <c r="E95" s="1">
+        <v>44972.5109496</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" s="1">
+        <v>44972.5109496</v>
+      </c>
+      <c r="E96" s="1">
+        <v>44972.5144218</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="1">
+        <v>44972.5144218</v>
+      </c>
+      <c r="E97" s="1">
+        <v>44972.5158107</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="1">
+        <v>44972.5158107</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44972.5171996</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="1">
+        <v>44972.5171996</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44972.5185885</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="1">
+        <v>44972.5185885</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44972.5199774</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Übersicht über alle Bestellungen</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Dauer</t>
   </si>
   <si>
-    <t>bestellung5031</t>
+    <t>bestellung3620</t>
   </si>
   <si>
     <t>Radar</t>
@@ -56,7 +56,7 @@
     <t>kundePruefen</t>
   </si>
   <si>
-    <t>Frank Torres</t>
+    <t>Ryan Spector</t>
   </si>
   <si>
     <t>bestellungSichten</t>
@@ -74,12 +74,15 @@
     <t>bedarfPruefen</t>
   </si>
   <si>
-    <t>Andreas Butler</t>
+    <t>Andreas Schubert</t>
   </si>
   <si>
     <t>bedarfNachbearbeiten</t>
   </si>
   <si>
+    <t>problemBeschreiben</t>
+  </si>
+  <si>
     <t>stuecklisteBetrachten</t>
   </si>
   <si>
@@ -92,61 +95,34 @@
     <t>materialbedarfPruefen</t>
   </si>
   <si>
-    <t>Roberto Schubert</t>
-  </si>
-  <si>
-    <t>problemBeschreiben</t>
+    <t>Roberto Butler</t>
+  </si>
+  <si>
+    <t>lieferantenAussuchen</t>
   </si>
   <si>
     <t>produktionsauftragErstellen</t>
   </si>
   <si>
-    <t>lieferantenAussuchen</t>
+    <t>materialBestellen</t>
+  </si>
+  <si>
+    <t>produktionsauftragBegutachten</t>
+  </si>
+  <si>
+    <t>Alexander Müller</t>
+  </si>
+  <si>
+    <t>rechnungBegleichen</t>
+  </si>
+  <si>
+    <t>Frank Brown</t>
   </si>
   <si>
     <t>lieferantAnfragenUndPruefen</t>
   </si>
   <si>
-    <t>produktionsauftragBegutachten</t>
-  </si>
-  <si>
-    <t>Roberto Brown</t>
-  </si>
-  <si>
-    <t>materialBestellen</t>
-  </si>
-  <si>
     <t>vermerkImSCMSystemVornehmen</t>
-  </si>
-  <si>
-    <t>rechnungBegleichen</t>
-  </si>
-  <si>
-    <t>Frank Hill</t>
-  </si>
-  <si>
-    <t>bestellung5031_Gehaeuse</t>
-  </si>
-  <si>
-    <t>lieferungEntgegennehmen</t>
-  </si>
-  <si>
-    <t>Andrew Spector</t>
-  </si>
-  <si>
-    <t>lieferungEinlagern</t>
-  </si>
-  <si>
-    <t>bestellung5031_Loetpaste</t>
-  </si>
-  <si>
-    <t>bestellung5031_PCB</t>
-  </si>
-  <si>
-    <t>bestellung5031_Peripherie</t>
-  </si>
-  <si>
-    <t>bestellung5031_Elektrische_Bauelemente</t>
   </si>
 </sst>
 </file>
@@ -238,13 +214,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>44972.2921996</v>
+        <v>44980.3156131</v>
       </c>
       <c r="E3" s="1">
-        <v>44972.5005329</v>
+        <v>44980.5308909</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>18000</v>
+        <v>18600</v>
       </c>
     </row>
   </sheetData>
@@ -254,7 +230,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -296,10 +272,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>44972.2921996</v>
+        <v>44980.3156131</v>
       </c>
       <c r="E3" s="1">
-        <v>44972.2949774</v>
+        <v>44980.3183909</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>240</v>
@@ -316,10 +292,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>44972.2949774</v>
+        <v>44980.3183909</v>
       </c>
       <c r="E4" s="1">
-        <v>44972.2998385</v>
+        <v>44980.323252</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>420</v>
@@ -336,10 +312,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>44972.2998385</v>
+        <v>44980.323252</v>
       </c>
       <c r="E5" s="1">
-        <v>44972.3012274</v>
+        <v>44980.3246409</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>120</v>
@@ -356,10 +332,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>44972.3012274</v>
+        <v>44980.3246409</v>
       </c>
       <c r="E6" s="1">
-        <v>44972.3040052</v>
+        <v>44980.3274187</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>240</v>
@@ -376,10 +352,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>44972.3040052</v>
+        <v>44980.3274187</v>
       </c>
       <c r="E7" s="1">
-        <v>44972.3046996</v>
+        <v>44980.3281131</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>60</v>
@@ -396,10 +372,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>44972.3046996</v>
+        <v>44980.3281131</v>
       </c>
       <c r="E8" s="1">
-        <v>44972.3081718</v>
+        <v>44980.3315854</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>300</v>
@@ -416,10 +392,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>44972.3081718</v>
+        <v>44980.3315854</v>
       </c>
       <c r="E9" s="1">
-        <v>44972.3116441</v>
+        <v>44980.3350576</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>300</v>
@@ -436,10 +412,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>44972.3116441</v>
+        <v>44980.3350576</v>
       </c>
       <c r="E10" s="1">
-        <v>44972.3151163</v>
+        <v>44980.3385298</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>300</v>
@@ -450,19 +426,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>44972.3151163</v>
+        <v>44980.3385298</v>
       </c>
       <c r="E11" s="1">
-        <v>44972.3158107</v>
+        <v>44980.342002</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -470,19 +446,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="1">
-        <v>44972.3158107</v>
+        <v>44980.342002</v>
       </c>
       <c r="E12" s="1">
-        <v>44972.3165052</v>
+        <v>44980.3454742</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -490,19 +466,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>44972.3165052</v>
+        <v>44980.3454742</v>
       </c>
       <c r="E13" s="1">
-        <v>44972.3178941</v>
+        <v>44980.3489465</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -510,19 +486,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>44972.3178941</v>
+        <v>44980.3489465</v>
       </c>
       <c r="E14" s="1">
-        <v>44972.3185885</v>
+        <v>44980.3524187</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -530,16 +506,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1">
-        <v>44972.3185885</v>
+        <v>44980.3524187</v>
       </c>
       <c r="E15" s="1">
-        <v>44972.3220607</v>
+        <v>44980.3558909</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>300</v>
@@ -550,19 +526,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>44972.3220607</v>
+        <v>44980.3558909</v>
       </c>
       <c r="E16" s="1">
-        <v>44972.3227552</v>
+        <v>44980.3593631</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -570,16 +546,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>44972.3227552</v>
+        <v>44980.3593631</v>
       </c>
       <c r="E17" s="1">
-        <v>44972.3262274</v>
+        <v>44980.3628354</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>300</v>
@@ -590,19 +566,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>44972.3262274</v>
+        <v>44980.3628354</v>
       </c>
       <c r="E18" s="1">
-        <v>44972.3269218</v>
+        <v>44980.3663076</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -610,16 +586,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>44972.3269218</v>
+        <v>44980.3663076</v>
       </c>
       <c r="E19" s="1">
-        <v>44972.3303941</v>
+        <v>44980.3697798</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>300</v>
@@ -630,16 +606,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>44972.3303941</v>
+        <v>44980.3697798</v>
       </c>
       <c r="E20" s="1">
-        <v>44972.3310885</v>
+        <v>44980.3704742</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>60</v>
@@ -653,16 +629,16 @@
         <v>25</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>44972.3310885</v>
+        <v>44980.3704742</v>
       </c>
       <c r="E21" s="1">
-        <v>44972.3345607</v>
+        <v>44980.3711687</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -670,19 +646,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>44972.3338663</v>
+        <v>44980.3711687</v>
       </c>
       <c r="E22" s="1">
-        <v>44972.3345607</v>
+        <v>44980.3725576</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -696,10 +672,10 @@
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>44972.3345607</v>
+        <v>44980.3725576</v>
       </c>
       <c r="E23" s="1">
-        <v>44972.3352552</v>
+        <v>44980.373252</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>60</v>
@@ -710,19 +686,19 @@
         <v>7</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>44972.3352552</v>
+        <v>44980.373252</v>
       </c>
       <c r="E24" s="1">
-        <v>44972.3359496</v>
+        <v>44980.3767242</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -730,19 +706,19 @@
         <v>7</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>44972.3359496</v>
+        <v>44980.3767242</v>
       </c>
       <c r="E25" s="1">
-        <v>44972.3394218</v>
+        <v>44980.3774187</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -750,19 +726,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>44972.3387274</v>
+        <v>44980.3774187</v>
       </c>
       <c r="E26" s="1">
-        <v>44972.3394218</v>
+        <v>44980.3808909</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -770,16 +746,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>44972.3394218</v>
+        <v>44980.3808909</v>
       </c>
       <c r="E27" s="1">
-        <v>44972.3401163</v>
+        <v>44980.3815854</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>60</v>
@@ -790,16 +766,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>44972.3401163</v>
+        <v>44980.3815854</v>
       </c>
       <c r="E28" s="1">
-        <v>44972.3435885</v>
+        <v>44980.3850576</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>300</v>
@@ -810,16 +786,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>44972.3428941</v>
+        <v>44980.3850576</v>
       </c>
       <c r="E29" s="1">
-        <v>44972.3435885</v>
+        <v>44980.385752</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>60</v>
@@ -830,16 +806,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
-        <v>44972.3435885</v>
+        <v>44980.385752</v>
       </c>
       <c r="E30" s="1">
-        <v>44972.3470607</v>
+        <v>44980.3892242</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>300</v>
@@ -850,16 +826,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="1">
-        <v>44972.3449774</v>
+        <v>44980.3871409</v>
       </c>
       <c r="E31" s="1">
-        <v>44972.3484496</v>
+        <v>44980.3906131</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>300</v>
@@ -873,16 +849,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>44972.3484496</v>
+        <v>44980.3906131</v>
       </c>
       <c r="E32" s="1">
-        <v>44972.3519218</v>
+        <v>44980.3913076</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -890,16 +866,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>44972.3519218</v>
+        <v>44980.3913076</v>
       </c>
       <c r="E33" s="1">
-        <v>44972.3553941</v>
+        <v>44980.3947798</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>300</v>
@@ -910,19 +886,19 @@
         <v>7</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>44972.3553941</v>
+        <v>44980.3947798</v>
       </c>
       <c r="E34" s="1">
-        <v>44972.3581718</v>
+        <v>44980.398252</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -930,16 +906,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="1">
-        <v>44972.3581718</v>
+        <v>44980.398252</v>
       </c>
       <c r="E35" s="1">
-        <v>44972.3588663</v>
+        <v>44980.3989465</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>60</v>
@@ -950,16 +926,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1">
-        <v>44972.3588663</v>
+        <v>44980.3975576</v>
       </c>
       <c r="E36" s="1">
-        <v>44972.3623385</v>
+        <v>44980.4010298</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>300</v>
@@ -970,19 +946,19 @@
         <v>7</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1">
-        <v>44972.3623385</v>
+        <v>44980.4010298</v>
       </c>
       <c r="E37" s="1">
-        <v>44972.3671996</v>
+        <v>44980.404502</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -990,16 +966,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1">
-        <v>44972.3644218</v>
+        <v>44980.404502</v>
       </c>
       <c r="E38" s="1">
-        <v>44972.3678941</v>
+        <v>44980.4079742</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>300</v>
@@ -1010,19 +986,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1">
-        <v>44972.3678941</v>
+        <v>44980.4072798</v>
       </c>
       <c r="E39" s="1">
-        <v>44972.3713663</v>
+        <v>44980.4079742</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1030,19 +1006,19 @@
         <v>7</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="1">
-        <v>44972.3713663</v>
+        <v>44980.4079742</v>
       </c>
       <c r="E40" s="1">
-        <v>44972.3720607</v>
+        <v>44980.4114465</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1050,16 +1026,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1">
-        <v>44972.3720607</v>
+        <v>44980.4100576</v>
       </c>
       <c r="E41" s="1">
-        <v>44972.3755329</v>
+        <v>44980.4135298</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>300</v>
@@ -1070,19 +1046,19 @@
         <v>7</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1">
-        <v>44972.3755329</v>
+        <v>44980.4135298</v>
       </c>
       <c r="E42" s="1">
-        <v>44972.3762274</v>
+        <v>44980.417002</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1090,19 +1066,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>44972.3762274</v>
+        <v>44980.4135298</v>
       </c>
       <c r="E43" s="1">
-        <v>44972.3796996</v>
+        <v>44980.4142242</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1110,19 +1086,19 @@
         <v>7</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1">
-        <v>44972.3790052</v>
+        <v>44980.417002</v>
       </c>
       <c r="E44" s="1">
-        <v>44972.3796996</v>
+        <v>44980.4218631</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>60</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1130,19 +1106,19 @@
         <v>7</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D45" s="1">
-        <v>44972.3796996</v>
+        <v>44980.4204742</v>
       </c>
       <c r="E45" s="1">
-        <v>44972.3831718</v>
+        <v>44980.4211687</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1150,16 +1126,16 @@
         <v>7</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1">
-        <v>44972.3831718</v>
+        <v>44980.4218631</v>
       </c>
       <c r="E46" s="1">
-        <v>44972.3838663</v>
+        <v>44980.4225576</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>60</v>
@@ -1170,19 +1146,19 @@
         <v>7</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" s="1">
-        <v>44972.3838663</v>
+        <v>44980.4225576</v>
       </c>
       <c r="E47" s="1">
-        <v>44972.3873385</v>
+        <v>44980.4253354</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1190,19 +1166,19 @@
         <v>7</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>44972.3873385</v>
+        <v>44980.4253354</v>
       </c>
       <c r="E48" s="1">
-        <v>44972.3901163</v>
+        <v>44980.4260298</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1210,19 +1186,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1">
-        <v>44972.3901163</v>
+        <v>44980.4260298</v>
       </c>
       <c r="E49" s="1">
-        <v>44972.3935885</v>
+        <v>44980.4267242</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1230,19 +1206,19 @@
         <v>7</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1">
-        <v>44972.3935885</v>
+        <v>44980.4267242</v>
       </c>
       <c r="E50" s="1">
-        <v>44972.3942829</v>
+        <v>44980.4301965</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1250,16 +1226,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="1">
-        <v>44972.3942829</v>
+        <v>44980.4301965</v>
       </c>
       <c r="E51" s="1">
-        <v>44972.3977552</v>
+        <v>44980.4336687</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>300</v>
@@ -1270,19 +1246,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>44972.3977552</v>
+        <v>44980.4336687</v>
       </c>
       <c r="E52" s="1">
-        <v>44972.4012274</v>
+        <v>44980.4343631</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1290,19 +1266,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" s="1">
-        <v>44972.4012274</v>
+        <v>44980.4343631</v>
       </c>
       <c r="E53" s="1">
-        <v>44972.4046996</v>
+        <v>44980.4371409</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1310,19 +1286,19 @@
         <v>7</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1">
-        <v>44972.4046996</v>
+        <v>44980.4371409</v>
       </c>
       <c r="E54" s="1">
-        <v>44972.4053941</v>
+        <v>44980.4406131</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1333,16 +1309,16 @@
         <v>25</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1">
-        <v>44972.4053941</v>
+        <v>44980.4385298</v>
       </c>
       <c r="E55" s="1">
-        <v>44972.4088663</v>
+        <v>44980.4392242</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1350,16 +1326,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1">
-        <v>44972.4088663</v>
+        <v>44980.4406131</v>
       </c>
       <c r="E56" s="1">
-        <v>44972.4123385</v>
+        <v>44980.4440854</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>300</v>
@@ -1370,19 +1346,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="1">
-        <v>44972.4123385</v>
+        <v>44980.4440854</v>
       </c>
       <c r="E57" s="1">
-        <v>44972.4158107</v>
+        <v>44980.4468631</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1390,16 +1366,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" s="1">
-        <v>44972.4158107</v>
+        <v>44980.4468631</v>
       </c>
       <c r="E58" s="1">
-        <v>44972.4192829</v>
+        <v>44980.4503354</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>300</v>
@@ -1410,19 +1386,19 @@
         <v>7</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>44972.4192829</v>
+        <v>44980.4489465</v>
       </c>
       <c r="E59" s="1">
-        <v>44972.4227552</v>
+        <v>44980.4496409</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1430,19 +1406,19 @@
         <v>7</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" s="1">
-        <v>44972.4227552</v>
+        <v>44980.4503354</v>
       </c>
       <c r="E60" s="1">
-        <v>44972.4255329</v>
+        <v>44980.4538076</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1453,13 +1429,13 @@
         <v>28</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D61" s="1">
-        <v>44972.4234496</v>
+        <v>44980.4538076</v>
       </c>
       <c r="E61" s="1">
-        <v>44972.4269218</v>
+        <v>44980.4572798</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>300</v>
@@ -1473,16 +1449,16 @@
         <v>25</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>44972.4255329</v>
+        <v>44980.4558909</v>
       </c>
       <c r="E62" s="1">
-        <v>44972.4290052</v>
+        <v>44980.4565854</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1490,16 +1466,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" s="1">
-        <v>44972.4290052</v>
+        <v>44980.4572798</v>
       </c>
       <c r="E63" s="1">
-        <v>44972.4324774</v>
+        <v>44980.460752</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>300</v>
@@ -1510,19 +1486,19 @@
         <v>7</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D64" s="1">
-        <v>44972.4324774</v>
+        <v>44980.4593631</v>
       </c>
       <c r="E64" s="1">
-        <v>44972.4359496</v>
+        <v>44980.4600576</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1530,19 +1506,19 @@
         <v>7</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D65" s="1">
-        <v>44972.4359496</v>
+        <v>44980.460752</v>
       </c>
       <c r="E65" s="1">
-        <v>44972.4394218</v>
+        <v>44980.4614465</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1550,19 +1526,19 @@
         <v>7</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D66" s="1">
-        <v>44972.4394218</v>
+        <v>44980.4614465</v>
       </c>
       <c r="E66" s="1">
-        <v>44972.4442829</v>
+        <v>44980.4649187</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1570,16 +1546,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="1">
-        <v>44972.4428941</v>
+        <v>44980.4649187</v>
       </c>
       <c r="E67" s="1">
-        <v>44972.4463663</v>
+        <v>44980.4683909</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>300</v>
@@ -1590,16 +1566,16 @@
         <v>7</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" s="1">
-        <v>44972.4463663</v>
+        <v>44980.4683909</v>
       </c>
       <c r="E68" s="1">
-        <v>44972.4491441</v>
+        <v>44980.4711687</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>240</v>
@@ -1610,19 +1586,19 @@
         <v>7</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="1">
-        <v>44972.4491441</v>
+        <v>44980.4711687</v>
       </c>
       <c r="E69" s="1">
-        <v>44972.4519218</v>
+        <v>44980.4746409</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1630,16 +1606,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1">
-        <v>44972.4519218</v>
+        <v>44980.4725576</v>
       </c>
       <c r="E70" s="1">
-        <v>44972.4553941</v>
+        <v>44980.4760298</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>300</v>
@@ -1650,16 +1626,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" s="1">
-        <v>44972.4553941</v>
+        <v>44980.4746409</v>
       </c>
       <c r="E71" s="1">
-        <v>44972.4588663</v>
+        <v>44980.4781131</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>300</v>
@@ -1670,19 +1646,19 @@
         <v>7</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D72" s="1">
-        <v>44972.4574774</v>
+        <v>44980.4781131</v>
       </c>
       <c r="E72" s="1">
-        <v>44972.4581718</v>
+        <v>44980.4815854</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1690,16 +1666,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" s="1">
-        <v>44972.4588663</v>
+        <v>44980.4815854</v>
       </c>
       <c r="E73" s="1">
-        <v>44972.4623385</v>
+        <v>44980.4850576</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>300</v>
@@ -1710,19 +1686,19 @@
         <v>7</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D74" s="1">
-        <v>44972.4623385</v>
+        <v>44980.4850576</v>
       </c>
       <c r="E74" s="1">
-        <v>44972.4658107</v>
+        <v>44980.4899187</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1733,16 +1709,16 @@
         <v>35</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1">
-        <v>44972.4658107</v>
+        <v>44980.4892242</v>
       </c>
       <c r="E75" s="1">
-        <v>44972.4665052</v>
+        <v>44980.492002</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1750,19 +1726,19 @@
         <v>7</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D76" s="1">
-        <v>44972.4665052</v>
+        <v>44980.492002</v>
       </c>
       <c r="E76" s="1">
-        <v>44972.4671996</v>
+        <v>44980.4954742</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1770,16 +1746,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77" s="1">
-        <v>44972.4671996</v>
+        <v>44980.4954742</v>
       </c>
       <c r="E77" s="1">
-        <v>44972.4706718</v>
+        <v>44980.4989465</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>300</v>
@@ -1790,16 +1766,16 @@
         <v>7</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78" s="1">
-        <v>44972.4706718</v>
+        <v>44980.4989465</v>
       </c>
       <c r="E78" s="1">
-        <v>44972.4741441</v>
+        <v>44980.5024187</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>300</v>
@@ -1810,19 +1786,19 @@
         <v>7</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D79" s="1">
-        <v>44972.4741441</v>
+        <v>44980.498252</v>
       </c>
       <c r="E79" s="1">
-        <v>44972.4769218</v>
+        <v>44980.4989465</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1830,19 +1806,19 @@
         <v>7</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1">
-        <v>44972.4769218</v>
+        <v>44980.5024187</v>
       </c>
       <c r="E80" s="1">
-        <v>44972.4796996</v>
+        <v>44980.5058909</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1850,16 +1826,16 @@
         <v>7</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81" s="1">
-        <v>44972.4796996</v>
+        <v>44980.5058909</v>
       </c>
       <c r="E81" s="1">
-        <v>44972.4831718</v>
+        <v>44980.5093631</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>300</v>
@@ -1870,19 +1846,19 @@
         <v>7</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82" s="1">
-        <v>44972.4831718</v>
+        <v>44980.5093631</v>
       </c>
       <c r="E82" s="1">
-        <v>44972.4866441</v>
+        <v>44980.5121409</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1890,19 +1866,19 @@
         <v>7</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="1">
-        <v>44972.4866441</v>
+        <v>44980.5121409</v>
       </c>
       <c r="E83" s="1">
-        <v>44972.4901163</v>
+        <v>44980.5149187</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1913,16 +1889,16 @@
         <v>33</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D84" s="1">
-        <v>44972.4901163</v>
+        <v>44980.5149187</v>
       </c>
       <c r="E84" s="1">
-        <v>44972.4935885</v>
+        <v>44980.5156131</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1930,19 +1906,19 @@
         <v>7</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D85" s="1">
-        <v>44972.4915052</v>
+        <v>44980.5156131</v>
       </c>
       <c r="E85" s="1">
-        <v>44972.4921996</v>
+        <v>44980.5190854</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1950,36 +1926,36 @@
         <v>7</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D86" s="1">
-        <v>44972.4928941</v>
+        <v>44980.5190854</v>
       </c>
       <c r="E86" s="1">
-        <v>44972.4935885</v>
+        <v>44980.5225576</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D87" s="1">
-        <v>44972.4935885</v>
+        <v>44980.5225576</v>
       </c>
       <c r="E87" s="1">
-        <v>44972.4970607</v>
+        <v>44980.5260298</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>300</v>
@@ -1990,19 +1966,19 @@
         <v>7</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D88" s="1">
-        <v>44972.4963663</v>
+        <v>44980.5260298</v>
       </c>
       <c r="E88" s="1">
-        <v>44972.4970607</v>
+        <v>44980.529502</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2010,16 +1986,16 @@
         <v>7</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" s="1">
-        <v>44972.4970607</v>
+        <v>44980.529502</v>
       </c>
       <c r="E89" s="1">
-        <v>44972.4977552</v>
+        <v>44980.5301965</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>60</v>
@@ -2027,222 +2003,22 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="0" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D90" s="1">
-        <v>44972.4977552</v>
+        <v>44980.5301965</v>
       </c>
       <c r="E90" s="1">
-        <v>44972.4991441</v>
+        <v>44980.5308909</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="1">
-        <v>44972.4991441</v>
-      </c>
-      <c r="E91" s="1">
-        <v>44972.4998385</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="1">
-        <v>44972.4998385</v>
-      </c>
-      <c r="E92" s="1">
-        <v>44972.5005329</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="1">
-        <v>44972.5005329</v>
-      </c>
-      <c r="E93" s="1">
-        <v>44972.5040052</v>
-      </c>
-      <c r="F93" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="1">
-        <v>44972.5040052</v>
-      </c>
-      <c r="E94" s="1">
-        <v>44972.5074774</v>
-      </c>
-      <c r="F94" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" s="1">
-        <v>44972.5074774</v>
-      </c>
-      <c r="E95" s="1">
-        <v>44972.5109496</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" s="1">
-        <v>44972.5109496</v>
-      </c>
-      <c r="E96" s="1">
-        <v>44972.5144218</v>
-      </c>
-      <c r="F96" s="0" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D97" s="1">
-        <v>44972.5144218</v>
-      </c>
-      <c r="E97" s="1">
-        <v>44972.5158107</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D98" s="1">
-        <v>44972.5158107</v>
-      </c>
-      <c r="E98" s="1">
-        <v>44972.5171996</v>
-      </c>
-      <c r="F98" s="0" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D99" s="1">
-        <v>44972.5171996</v>
-      </c>
-      <c r="E99" s="1">
-        <v>44972.5185885</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="1">
-        <v>44972.5185885</v>
-      </c>
-      <c r="E100" s="1">
-        <v>44972.5199774</v>
-      </c>
-      <c r="F100" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Übersicht über alle Bestellungen</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Dauer</t>
   </si>
   <si>
-    <t>bestellung3620</t>
+    <t>bestellung1112</t>
   </si>
   <si>
     <t>Radar</t>
@@ -56,7 +56,7 @@
     <t>kundePruefen</t>
   </si>
   <si>
-    <t>Ryan Spector</t>
+    <t>Andrew Brown</t>
   </si>
   <si>
     <t>bestellungSichten</t>
@@ -74,7 +74,7 @@
     <t>bedarfPruefen</t>
   </si>
   <si>
-    <t>Andreas Schubert</t>
+    <t>Travis Gonzalez</t>
   </si>
   <si>
     <t>bedarfNachbearbeiten</t>
@@ -95,34 +95,58 @@
     <t>materialbedarfPruefen</t>
   </si>
   <si>
-    <t>Roberto Butler</t>
+    <t>Ryan Garcia</t>
   </si>
   <si>
     <t>lieferantenAussuchen</t>
   </si>
   <si>
+    <t>materialBestellen</t>
+  </si>
+  <si>
+    <t>rechnungBegleichen</t>
+  </si>
+  <si>
+    <t>Justin Brown</t>
+  </si>
+  <si>
     <t>produktionsauftragErstellen</t>
   </si>
   <si>
-    <t>materialBestellen</t>
-  </si>
-  <si>
     <t>produktionsauftragBegutachten</t>
   </si>
   <si>
-    <t>Alexander Müller</t>
-  </si>
-  <si>
-    <t>rechnungBegleichen</t>
-  </si>
-  <si>
-    <t>Frank Brown</t>
+    <t>Martin Torres</t>
   </si>
   <si>
     <t>lieferantAnfragenUndPruefen</t>
   </si>
   <si>
     <t>vermerkImSCMSystemVornehmen</t>
+  </si>
+  <si>
+    <t>bestellung1112_Gehaeuse</t>
+  </si>
+  <si>
+    <t>lieferungEntgegennehmen</t>
+  </si>
+  <si>
+    <t>John Schubert</t>
+  </si>
+  <si>
+    <t>bestellung1112_Peripherie</t>
+  </si>
+  <si>
+    <t>bestellung1112_Loetpaste</t>
+  </si>
+  <si>
+    <t>bestellung1112_PCB</t>
+  </si>
+  <si>
+    <t>bestellung1112_Elektrische_Bauelemente</t>
+  </si>
+  <si>
+    <t>lieferungEinlagern</t>
   </si>
 </sst>
 </file>
@@ -214,13 +238,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>44980.3156131</v>
+        <v>45068.2523677</v>
       </c>
       <c r="E3" s="1">
-        <v>44980.5308909</v>
+        <v>45068.5502844</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>18600</v>
+        <v>25740</v>
       </c>
     </row>
   </sheetData>
@@ -230,7 +254,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -272,10 +296,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>44980.3156131</v>
+        <v>45068.2523677</v>
       </c>
       <c r="E3" s="1">
-        <v>44980.3183909</v>
+        <v>45068.2551455</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>240</v>
@@ -292,10 +316,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>44980.3183909</v>
+        <v>45068.2551455</v>
       </c>
       <c r="E4" s="1">
-        <v>44980.323252</v>
+        <v>45068.2600066</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>420</v>
@@ -312,10 +336,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>44980.323252</v>
+        <v>45068.2600066</v>
       </c>
       <c r="E5" s="1">
-        <v>44980.3246409</v>
+        <v>45068.2613955</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>120</v>
@@ -332,10 +356,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>44980.3246409</v>
+        <v>45068.2613955</v>
       </c>
       <c r="E6" s="1">
-        <v>44980.3274187</v>
+        <v>45068.2641733</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>240</v>
@@ -352,10 +376,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>44980.3274187</v>
+        <v>45068.2641733</v>
       </c>
       <c r="E7" s="1">
-        <v>44980.3281131</v>
+        <v>45068.2648677</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>60</v>
@@ -372,10 +396,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>44980.3281131</v>
+        <v>45068.2648677</v>
       </c>
       <c r="E8" s="1">
-        <v>44980.3315854</v>
+        <v>45068.26834</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>300</v>
@@ -392,10 +416,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>44980.3315854</v>
+        <v>45068.26834</v>
       </c>
       <c r="E9" s="1">
-        <v>44980.3350576</v>
+        <v>45068.2718122</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>300</v>
@@ -412,10 +436,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>44980.3350576</v>
+        <v>45068.2718122</v>
       </c>
       <c r="E10" s="1">
-        <v>44980.3385298</v>
+        <v>45068.2752844</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>300</v>
@@ -432,10 +456,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>44980.3385298</v>
+        <v>45068.2752844</v>
       </c>
       <c r="E11" s="1">
-        <v>44980.342002</v>
+        <v>45068.2787566</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>300</v>
@@ -452,10 +476,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="1">
-        <v>44980.342002</v>
+        <v>45068.2787566</v>
       </c>
       <c r="E12" s="1">
-        <v>44980.3454742</v>
+        <v>45068.2822288</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>300</v>
@@ -472,10 +496,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>44980.3454742</v>
+        <v>45068.2822288</v>
       </c>
       <c r="E13" s="1">
-        <v>44980.3489465</v>
+        <v>45068.2857011</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>300</v>
@@ -492,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>44980.3489465</v>
+        <v>45068.2857011</v>
       </c>
       <c r="E14" s="1">
-        <v>44980.3524187</v>
+        <v>45068.2891733</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>300</v>
@@ -512,10 +536,10 @@
         <v>20</v>
       </c>
       <c r="D15" s="1">
-        <v>44980.3524187</v>
+        <v>45068.2891733</v>
       </c>
       <c r="E15" s="1">
-        <v>44980.3558909</v>
+        <v>45068.2926455</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>300</v>
@@ -532,10 +556,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>44980.3558909</v>
+        <v>45068.2926455</v>
       </c>
       <c r="E16" s="1">
-        <v>44980.3593631</v>
+        <v>45068.2961177</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>300</v>
@@ -552,10 +576,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>44980.3593631</v>
+        <v>45068.2961177</v>
       </c>
       <c r="E17" s="1">
-        <v>44980.3628354</v>
+        <v>45068.29959</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>300</v>
@@ -572,10 +596,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>44980.3628354</v>
+        <v>45068.29959</v>
       </c>
       <c r="E18" s="1">
-        <v>44980.3663076</v>
+        <v>45068.3030622</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>300</v>
@@ -586,16 +610,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>44980.3663076</v>
+        <v>45068.3030622</v>
       </c>
       <c r="E19" s="1">
-        <v>44980.3697798</v>
+        <v>45068.3065344</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>300</v>
@@ -606,19 +630,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>44980.3697798</v>
+        <v>45068.3065344</v>
       </c>
       <c r="E20" s="1">
-        <v>44980.3704742</v>
+        <v>45068.3100066</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -626,19 +650,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>44980.3704742</v>
+        <v>45068.3100066</v>
       </c>
       <c r="E21" s="1">
-        <v>44980.3711687</v>
+        <v>45068.3134788</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -646,19 +670,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>44980.3711687</v>
+        <v>45068.3134788</v>
       </c>
       <c r="E22" s="1">
-        <v>44980.3725576</v>
+        <v>45068.3169511</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -672,10 +696,10 @@
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>44980.3725576</v>
+        <v>45068.3169511</v>
       </c>
       <c r="E23" s="1">
-        <v>44980.373252</v>
+        <v>45068.3176455</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>60</v>
@@ -686,19 +710,19 @@
         <v>7</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>44980.373252</v>
+        <v>45068.3176455</v>
       </c>
       <c r="E24" s="1">
-        <v>44980.3767242</v>
+        <v>45068.31834</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -712,13 +736,13 @@
         <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>44980.3767242</v>
+        <v>45068.31834</v>
       </c>
       <c r="E25" s="1">
-        <v>44980.3774187</v>
+        <v>45068.3197288</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -726,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>44980.3774187</v>
+        <v>45068.3197288</v>
       </c>
       <c r="E26" s="1">
-        <v>44980.3808909</v>
+        <v>45068.3204233</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -746,19 +770,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>44980.3808909</v>
+        <v>45068.3204233</v>
       </c>
       <c r="E27" s="1">
-        <v>44980.3815854</v>
+        <v>45068.3238955</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -766,19 +790,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>44980.3815854</v>
+        <v>45068.3238955</v>
       </c>
       <c r="E28" s="1">
-        <v>44980.3850576</v>
+        <v>45068.32459</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -786,19 +810,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>44980.3850576</v>
+        <v>45068.32459</v>
       </c>
       <c r="E29" s="1">
-        <v>44980.385752</v>
+        <v>45068.3280622</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -806,19 +830,19 @@
         <v>7</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>44980.385752</v>
+        <v>45068.3280622</v>
       </c>
       <c r="E30" s="1">
-        <v>44980.3892242</v>
+        <v>45068.3287566</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -826,16 +850,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="1">
-        <v>44980.3871409</v>
+        <v>45068.3287566</v>
       </c>
       <c r="E31" s="1">
-        <v>44980.3906131</v>
+        <v>45068.3322288</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>300</v>
@@ -846,16 +870,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>44980.3906131</v>
+        <v>45068.3322288</v>
       </c>
       <c r="E32" s="1">
-        <v>44980.3913076</v>
+        <v>45068.3329233</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>60</v>
@@ -866,16 +890,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>44980.3913076</v>
+        <v>45068.3329233</v>
       </c>
       <c r="E33" s="1">
-        <v>44980.3947798</v>
+        <v>45068.3363955</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>300</v>
@@ -886,16 +910,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>44980.3947798</v>
+        <v>45068.3357011</v>
       </c>
       <c r="E34" s="1">
-        <v>44980.398252</v>
+        <v>45068.3391733</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>300</v>
@@ -912,10 +936,10 @@
         <v>20</v>
       </c>
       <c r="D35" s="1">
-        <v>44980.398252</v>
+        <v>45068.3391733</v>
       </c>
       <c r="E35" s="1">
-        <v>44980.3989465</v>
+        <v>45068.3398677</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>60</v>
@@ -926,16 +950,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="1">
-        <v>44980.3975576</v>
+        <v>45068.3398677</v>
       </c>
       <c r="E36" s="1">
-        <v>44980.4010298</v>
+        <v>45068.34334</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>300</v>
@@ -946,16 +970,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="1">
-        <v>44980.4010298</v>
+        <v>45068.3426455</v>
       </c>
       <c r="E37" s="1">
-        <v>44980.404502</v>
+        <v>45068.3461177</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>300</v>
@@ -966,19 +990,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>44980.404502</v>
+        <v>45068.3461177</v>
       </c>
       <c r="E38" s="1">
-        <v>44980.4079742</v>
+        <v>45068.3468122</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -986,19 +1010,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1">
-        <v>44980.4072798</v>
+        <v>45068.3468122</v>
       </c>
       <c r="E39" s="1">
-        <v>44980.4079742</v>
+        <v>45068.3502844</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1006,16 +1030,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="1">
-        <v>44980.4079742</v>
+        <v>45068.3502844</v>
       </c>
       <c r="E40" s="1">
-        <v>44980.4114465</v>
+        <v>45068.3537566</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>300</v>
@@ -1029,16 +1053,16 @@
         <v>30</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" s="1">
-        <v>44980.4100576</v>
+        <v>45068.3537566</v>
       </c>
       <c r="E41" s="1">
-        <v>44980.4135298</v>
+        <v>45068.3544511</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1046,16 +1070,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>44980.4135298</v>
+        <v>45068.3544511</v>
       </c>
       <c r="E42" s="1">
-        <v>44980.417002</v>
+        <v>45068.3579233</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>300</v>
@@ -1066,19 +1090,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>44980.4135298</v>
+        <v>45068.3579233</v>
       </c>
       <c r="E43" s="1">
-        <v>44980.4142242</v>
+        <v>45068.3613955</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1086,19 +1110,19 @@
         <v>7</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1">
-        <v>44980.417002</v>
+        <v>45068.3579233</v>
       </c>
       <c r="E44" s="1">
-        <v>44980.4218631</v>
+        <v>45068.3613955</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1106,19 +1130,19 @@
         <v>7</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1">
-        <v>44980.4204742</v>
+        <v>45068.3613955</v>
       </c>
       <c r="E45" s="1">
-        <v>44980.4211687</v>
+        <v>45068.3662566</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>60</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1126,19 +1150,19 @@
         <v>7</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1">
-        <v>44980.4218631</v>
+        <v>45068.3641733</v>
       </c>
       <c r="E46" s="1">
-        <v>44980.4225576</v>
+        <v>45068.3676455</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1146,19 +1170,19 @@
         <v>7</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>44980.4225576</v>
+        <v>45068.3676455</v>
       </c>
       <c r="E47" s="1">
-        <v>44980.4253354</v>
+        <v>45068.3711177</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1172,10 +1196,10 @@
         <v>20</v>
       </c>
       <c r="D48" s="1">
-        <v>44980.4253354</v>
+        <v>45068.3711177</v>
       </c>
       <c r="E48" s="1">
-        <v>44980.4260298</v>
+        <v>45068.3718122</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>60</v>
@@ -1186,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D49" s="1">
-        <v>44980.4260298</v>
+        <v>45068.3718122</v>
       </c>
       <c r="E49" s="1">
-        <v>44980.4267242</v>
+        <v>45068.3752844</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1206,16 +1230,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1">
-        <v>44980.4267242</v>
+        <v>45068.3752844</v>
       </c>
       <c r="E50" s="1">
-        <v>44980.4301965</v>
+        <v>45068.3787566</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>300</v>
@@ -1226,19 +1250,19 @@
         <v>7</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="1">
-        <v>44980.4301965</v>
+        <v>45068.3787566</v>
       </c>
       <c r="E51" s="1">
-        <v>44980.4336687</v>
+        <v>45068.3815344</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1246,16 +1270,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="1">
-        <v>44980.4336687</v>
+        <v>45068.3815344</v>
       </c>
       <c r="E52" s="1">
-        <v>44980.4343631</v>
+        <v>45068.3822288</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>60</v>
@@ -1266,19 +1290,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="1">
-        <v>44980.4343631</v>
+        <v>45068.3822288</v>
       </c>
       <c r="E53" s="1">
-        <v>44980.4371409</v>
+        <v>45068.3857011</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1286,19 +1310,19 @@
         <v>7</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>44980.4371409</v>
+        <v>45068.3857011</v>
       </c>
       <c r="E54" s="1">
-        <v>44980.4406131</v>
+        <v>45068.3863955</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1306,19 +1330,19 @@
         <v>7</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1">
-        <v>44980.4385298</v>
+        <v>45068.3863955</v>
       </c>
       <c r="E55" s="1">
-        <v>44980.4392242</v>
+        <v>45068.3898677</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1326,19 +1350,19 @@
         <v>7</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D56" s="1">
-        <v>44980.4406131</v>
+        <v>45068.3898677</v>
       </c>
       <c r="E56" s="1">
-        <v>44980.4440854</v>
+        <v>45068.3905622</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1346,19 +1370,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1">
-        <v>44980.4440854</v>
+        <v>45068.3905622</v>
       </c>
       <c r="E57" s="1">
-        <v>44980.4468631</v>
+        <v>45068.3912566</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1366,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v>44980.4468631</v>
+        <v>45068.3912566</v>
       </c>
       <c r="E58" s="1">
-        <v>44980.4503354</v>
+        <v>45068.3919511</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1386,19 +1410,19 @@
         <v>7</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1">
-        <v>44980.4489465</v>
+        <v>45068.3919511</v>
       </c>
       <c r="E59" s="1">
-        <v>44980.4496409</v>
+        <v>45068.3954233</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1406,19 +1430,19 @@
         <v>7</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D60" s="1">
-        <v>44980.4503354</v>
+        <v>45068.3954233</v>
       </c>
       <c r="E60" s="1">
-        <v>44980.4538076</v>
+        <v>45068.3961177</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1426,16 +1450,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="1">
-        <v>44980.4538076</v>
+        <v>45068.3961177</v>
       </c>
       <c r="E61" s="1">
-        <v>44980.4572798</v>
+        <v>45068.39959</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>300</v>
@@ -1452,10 +1476,10 @@
         <v>20</v>
       </c>
       <c r="D62" s="1">
-        <v>44980.4558909</v>
+        <v>45068.3988955</v>
       </c>
       <c r="E62" s="1">
-        <v>44980.4565854</v>
+        <v>45068.39959</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>60</v>
@@ -1466,16 +1490,16 @@
         <v>7</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="1">
-        <v>44980.4572798</v>
+        <v>45068.39959</v>
       </c>
       <c r="E63" s="1">
-        <v>44980.460752</v>
+        <v>45068.4030622</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>300</v>
@@ -1486,19 +1510,19 @@
         <v>7</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D64" s="1">
-        <v>44980.4593631</v>
+        <v>45068.4030622</v>
       </c>
       <c r="E64" s="1">
-        <v>44980.4600576</v>
+        <v>45068.4065344</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1506,16 +1530,16 @@
         <v>7</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="1">
-        <v>44980.460752</v>
+        <v>45068.4037566</v>
       </c>
       <c r="E65" s="1">
-        <v>44980.4614465</v>
+        <v>45068.4044511</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>60</v>
@@ -1526,16 +1550,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="1">
-        <v>44980.4614465</v>
+        <v>45068.4065344</v>
       </c>
       <c r="E66" s="1">
-        <v>44980.4649187</v>
+        <v>45068.4100066</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>300</v>
@@ -1546,19 +1570,19 @@
         <v>7</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1">
-        <v>44980.4649187</v>
+        <v>45068.4100066</v>
       </c>
       <c r="E67" s="1">
-        <v>44980.4683909</v>
+        <v>45068.4107011</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1566,19 +1590,19 @@
         <v>7</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="1">
-        <v>44980.4683909</v>
+        <v>45068.4107011</v>
       </c>
       <c r="E68" s="1">
-        <v>44980.4711687</v>
+        <v>45068.4141733</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1592,10 +1616,10 @@
         <v>27</v>
       </c>
       <c r="D69" s="1">
-        <v>44980.4711687</v>
+        <v>45068.4141733</v>
       </c>
       <c r="E69" s="1">
-        <v>44980.4746409</v>
+        <v>45068.4176455</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>300</v>
@@ -1606,16 +1630,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D70" s="1">
-        <v>44980.4725576</v>
+        <v>45068.4176455</v>
       </c>
       <c r="E70" s="1">
-        <v>44980.4760298</v>
+        <v>45068.4211177</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>300</v>
@@ -1626,19 +1650,19 @@
         <v>7</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D71" s="1">
-        <v>44980.4746409</v>
+        <v>45068.4211177</v>
       </c>
       <c r="E71" s="1">
-        <v>44980.4781131</v>
+        <v>45068.4218122</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1646,16 +1670,16 @@
         <v>7</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="1">
-        <v>44980.4781131</v>
+        <v>45068.4218122</v>
       </c>
       <c r="E72" s="1">
-        <v>44980.4815854</v>
+        <v>45068.4252844</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>300</v>
@@ -1672,10 +1696,10 @@
         <v>27</v>
       </c>
       <c r="D73" s="1">
-        <v>44980.4815854</v>
+        <v>45068.4252844</v>
       </c>
       <c r="E73" s="1">
-        <v>44980.4850576</v>
+        <v>45068.4287566</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>300</v>
@@ -1686,19 +1710,19 @@
         <v>7</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D74" s="1">
-        <v>44980.4850576</v>
+        <v>45068.4287566</v>
       </c>
       <c r="E74" s="1">
-        <v>44980.4899187</v>
+        <v>45068.4322288</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1712,10 +1736,10 @@
         <v>27</v>
       </c>
       <c r="D75" s="1">
-        <v>44980.4892242</v>
+        <v>45068.4322288</v>
       </c>
       <c r="E75" s="1">
-        <v>44980.492002</v>
+        <v>45068.4350066</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>240</v>
@@ -1726,16 +1750,16 @@
         <v>7</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1">
-        <v>44980.492002</v>
+        <v>45068.4343122</v>
       </c>
       <c r="E76" s="1">
-        <v>44980.4954742</v>
+        <v>45068.4377844</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>300</v>
@@ -1746,16 +1770,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="1">
-        <v>44980.4954742</v>
+        <v>45068.43709</v>
       </c>
       <c r="E77" s="1">
-        <v>44980.4989465</v>
+        <v>45068.4405622</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>300</v>
@@ -1766,16 +1790,16 @@
         <v>7</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="1">
-        <v>44980.4989465</v>
+        <v>45068.4405622</v>
       </c>
       <c r="E78" s="1">
-        <v>44980.5024187</v>
+        <v>45068.4440344</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>300</v>
@@ -1786,19 +1810,19 @@
         <v>7</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D79" s="1">
-        <v>44980.498252</v>
+        <v>45068.4440344</v>
       </c>
       <c r="E79" s="1">
-        <v>44980.4989465</v>
+        <v>45068.4475066</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1806,19 +1830,19 @@
         <v>7</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D80" s="1">
-        <v>44980.5024187</v>
+        <v>45068.4475066</v>
       </c>
       <c r="E80" s="1">
-        <v>44980.5058909</v>
+        <v>45068.4523677</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1826,16 +1850,16 @@
         <v>7</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="1">
-        <v>44980.5058909</v>
+        <v>45068.4516733</v>
       </c>
       <c r="E81" s="1">
-        <v>44980.5093631</v>
+        <v>45068.4551455</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>300</v>
@@ -1846,19 +1870,19 @@
         <v>7</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="1">
-        <v>44980.5093631</v>
+        <v>45068.4551455</v>
       </c>
       <c r="E82" s="1">
-        <v>44980.5121409</v>
+        <v>45068.4586177</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1866,19 +1890,19 @@
         <v>7</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83" s="1">
-        <v>44980.5121409</v>
+        <v>45068.4537566</v>
       </c>
       <c r="E83" s="1">
-        <v>44980.5149187</v>
+        <v>45068.4544511</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1886,16 +1910,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>44980.5149187</v>
+        <v>45068.4579233</v>
       </c>
       <c r="E84" s="1">
-        <v>44980.5156131</v>
+        <v>45068.4586177</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>60</v>
@@ -1906,16 +1930,16 @@
         <v>7</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="1">
-        <v>44980.5156131</v>
+        <v>45068.4586177</v>
       </c>
       <c r="E85" s="1">
-        <v>44980.5190854</v>
+        <v>45068.46209</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>300</v>
@@ -1926,19 +1950,19 @@
         <v>7</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D86" s="1">
-        <v>44980.5190854</v>
+        <v>45068.46209</v>
       </c>
       <c r="E86" s="1">
-        <v>44980.5225576</v>
+        <v>45068.4627844</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1946,16 +1970,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="1">
-        <v>44980.5225576</v>
+        <v>45068.4627844</v>
       </c>
       <c r="E87" s="1">
-        <v>44980.5260298</v>
+        <v>45068.4662566</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>300</v>
@@ -1966,16 +1990,16 @@
         <v>7</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="1">
-        <v>44980.5260298</v>
+        <v>45068.4662566</v>
       </c>
       <c r="E88" s="1">
-        <v>44980.529502</v>
+        <v>45068.4697288</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>300</v>
@@ -1986,19 +2010,19 @@
         <v>7</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D89" s="1">
-        <v>44980.529502</v>
+        <v>45068.4697288</v>
       </c>
       <c r="E89" s="1">
-        <v>44980.5301965</v>
+        <v>45068.4732011</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2006,18 +2030,598 @@
         <v>7</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D90" s="1">
-        <v>44980.5301965</v>
+        <v>45068.4732011</v>
       </c>
       <c r="E90" s="1">
-        <v>44980.5308909</v>
+        <v>45068.4766733</v>
       </c>
       <c r="F90" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45068.4766733</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45068.4801455</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45068.4801455</v>
+      </c>
+      <c r="E92" s="1">
+        <v>45068.4836177</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45068.4836177</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45068.4863955</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45068.4863955</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45068.4898677</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45068.4898677</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45068.49334</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45068.49334</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45068.4961177</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45068.4961177</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45068.49959</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45068.49959</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45068.5030622</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45068.5030622</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45068.50584</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45068.50584</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45068.5093122</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="1">
+        <v>45068.5093122</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45068.5127844</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="1">
+        <v>45068.5127844</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45068.5155622</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="1">
+        <v>45068.5155622</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45068.5190344</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" s="1">
+        <v>45068.5190344</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45068.5225066</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="1">
+        <v>45068.5225066</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45068.5232011</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="1">
+        <v>45068.5232011</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45068.5266733</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="1">
+        <v>45068.5266733</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45068.5301455</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="1">
+        <v>45068.5301455</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45068.5336177</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="1">
+        <v>45068.5336177</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45068.53709</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="1">
+        <v>45068.53709</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45068.5405622</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D111" s="1">
+        <v>45068.5405622</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45068.5419511</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="1">
+        <v>45068.5419511</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45068.54334</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45068.54334</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45068.5447288</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D114" s="1">
+        <v>45068.5447288</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45068.5461177</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="1">
+        <v>45068.5461177</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45068.5475066</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="1">
+        <v>45068.5475066</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45068.5482011</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="1">
+        <v>45068.5482011</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45068.5488955</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="1">
+        <v>45068.5488955</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45068.54959</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="1">
+        <v>45068.54959</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45068.5502844</v>
+      </c>
+      <c r="F119" s="0" t="n">
         <v>60</v>
       </c>
     </row>
